--- a/[3] Test Input/RESULTS_T10.xlsx
+++ b/[3] Test Input/RESULTS_T10.xlsx
@@ -523,47 +523,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[10, 12, 12]</t>
+          <t>[2, 2, 2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>[32, 32, 32]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>[30, 30, 30]</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[20, 18, 18]</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[68, 60, 60]</t>
+          <t>[30, 25, 26]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[68.41, 59.69, 60.03]</t>
+          <t>[29.87442737373531, 25.60862616685955, 26.44756933839941]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[61.71, 54.32, 56.68]</t>
+          <t>[29.242867829720627, 23.700096954044582, 26.44756933839941]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[24.89, 22.76, 21.65]</t>
+          <t>[8.71, 7.36, 7.14]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[166.45, 176.1, 158.98]</t>
+          <t>[20.31, 13.58, 9.9]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[6527.53, 6035.29, 5555.23]</t>
+          <t>[680.77, 806.07, 540.98]</t>
         </is>
       </c>
     </row>
@@ -590,47 +590,47 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[38]</t>
+          <t>[25]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[38.23]</t>
+          <t>[24.66990551005223]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[31.859999999999996]</t>
+          <t>[23.913116520513544]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[13.0]</t>
+          <t>[8.39]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[87.13]</t>
+          <t>[48.67]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[3744.3]</t>
+          <t>[1527.07]</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -667,37 +667,37 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[77]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[77.8]</t>
+          <t>[29.844464368711783]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[68.07]</t>
+          <t>[28.37739611343147]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[32.06]</t>
+          <t>[9.88]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[180.23]</t>
+          <t>[25.57]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[8599.23]</t>
+          <t>[1022.91]</t>
         </is>
       </c>
     </row>
@@ -724,47 +724,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[72]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[72.1]</t>
+          <t>[27.982281722458243]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[67.41]</t>
+          <t>[27.982281722458243]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[31.59]</t>
+          <t>[10.69]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[211.58]</t>
+          <t>[45.06]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[8914.52]</t>
+          <t>[1560.3]</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[64]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[64.72]</t>
+          <t>[27.079589391520194]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[53.65]</t>
+          <t>[26.312669613381964]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[25.69]</t>
+          <t>[8.05]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[162.86]</t>
+          <t>[28.9]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[6755.05]</t>
+          <t>[900.88]</t>
         </is>
       </c>
     </row>
@@ -858,47 +858,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[74]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[74.78]</t>
+          <t>[27.116365804110952]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[72.77]</t>
+          <t>[25.4734130578746]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[30.44]</t>
+          <t>[9.71]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[190.65]</t>
+          <t>[27.28]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[8334.05]</t>
+          <t>[998.43]</t>
         </is>
       </c>
     </row>
@@ -925,47 +925,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[12, 12]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[18, 32]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[16, 30]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[77, 64]</t>
+          <t>[34, 26]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[77.13, 64.05]</t>
+          <t>[33.520730051146316, 26.27535292468853]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[69.08, 56.339999999999996]</t>
+          <t>[27.099975350452205, 23.44410559691278]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[31.95, 26.12]</t>
+          <t>[11.39, 7.75]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[163.29, 187.15]</t>
+          <t>[40.12, 24.93]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[8108.53, 7178.11]</t>
+          <t>[1680.73, 903.45]</t>
         </is>
       </c>
     </row>
@@ -992,47 +992,47 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[138]</t>
+          <t>[66]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[138.5]</t>
+          <t>[61.28108273875971]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[132.8]</t>
+          <t>[56.484986570908]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[55.92]</t>
+          <t>[23.94]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>[148.53]</t>
+          <t>[88.04]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[13209.68]</t>
+          <t>[4554.62]</t>
         </is>
       </c>
     </row>
@@ -1059,47 +1059,47 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[30, 32]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[18, 22]</t>
+          <t>[16, 16]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[131, 118]</t>
+          <t>[62, 56]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[131.46, 117.38]</t>
+          <t>[61.014791907771794, 52.10287666253136]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[104.64000000000001, 112.00999999999999]</t>
+          <t>[50.120604862225946, 45.54091087785364]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[53.46, 48.49]</t>
+          <t>[20.64, 19.98]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[106.18, 134.91]</t>
+          <t>[43.62, 57.68]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[12340.09, 11582.23]</t>
+          <t>[3078.16, 3302.36]</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[170]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[169.69]</t>
+          <t>[79.73374110489735]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[150.23999999999998]</t>
+          <t>[65.4792974652836]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[63.34]</t>
+          <t>[27.95]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[96.9]</t>
+          <t>[63.85]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[13351.68]</t>
+          <t>[4441.71]</t>
         </is>
       </c>
     </row>
@@ -1193,47 +1193,47 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[139]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[139.17]</t>
+          <t>[55.897262412082185]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[122.4]</t>
+          <t>[54.82421742710823]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[56.36]</t>
+          <t>[20.2]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[124.24]</t>
+          <t>[43.22]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[13350.31]</t>
+          <t>[2962.44]</t>
         </is>
       </c>
     </row>
@@ -1260,47 +1260,47 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[266]</t>
+          <t>[94]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[208.26]</t>
+          <t>[86.04888669652568]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[211.61]</t>
+          <t>[85.9817676332346]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[115.19]</t>
+          <t>[33.76]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[135.09]</t>
+          <t>[68.17]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[25421.91]</t>
+          <t>[6069.61]</t>
         </is>
       </c>
     </row>
@@ -1327,47 +1327,47 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[166]</t>
+          <t>[66]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[166.67]</t>
+          <t>[66.49893677870003]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[136.14999999999998]</t>
+          <t>[66.49893677870003]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[66.51]</t>
+          <t>[22.55]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[124.63]</t>
+          <t>[36.83]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[16802.99]</t>
+          <t>[2333.51]</t>
         </is>
       </c>
     </row>
@@ -1394,47 +1394,47 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[18, 32]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[8, 22]</t>
+          <t>[16, 16]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[140, 148]</t>
+          <t>[79, 78]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[140.18, 148.23]</t>
+          <t>[75.80207412594307, 73.32527646431451]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[123.74000000000001, 144.88]</t>
+          <t>[62.37717795240823, 71.93501359940049]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[57.89, 56.73]</t>
+          <t>[24.42, 25.61]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[118.28, 112.97]</t>
+          <t>[47.76, 53.68]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[14944.38, 12442.7]</t>
+          <t>[3760.41, 3979.86]</t>
         </is>
       </c>
     </row>
@@ -1461,47 +1461,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[180]</t>
+          <t>[76]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[180.07999999999998]</t>
+          <t>[74.49122293726249]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[170.69]</t>
+          <t>[74.49122293726249]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[66.48]</t>
+          <t>[23.41]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[134.82]</t>
+          <t>[20.02]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[16123.5]</t>
+          <t>[2279.12]</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1538,37 +1538,37 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[140]</t>
+          <t>[68]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[140.52]</t>
+          <t>[61.72032565738297]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[137.17000000000002]</t>
+          <t>[54.59631570805864]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[54.68]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[95.64]</t>
+          <t>[52.39]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[13642.14]</t>
+          <t>[3149.63]</t>
         </is>
       </c>
     </row>
@@ -1600,42 +1600,42 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>[28]</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[91]</t>
+          <t>[40]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[91.22]</t>
+          <t>[39.474385719262024]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[74.78999999999999]</t>
+          <t>[33.58541036377354]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[33.36]</t>
+          <t>[12.75]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[127.32]</t>
+          <t>[26.9]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[8082.37]</t>
+          <t>[1285.94]</t>
         </is>
       </c>
     </row>
@@ -1657,52 +1657,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[54]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[14.42]</t>
+          <t>[46.60838020806955]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[17.43]</t>
+          <t>[45.50548823384586]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[7.91]</t>
+          <t>[16.8]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[211.15]</t>
+          <t>[42.67]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[2385.02]</t>
+          <t>[2527.21]</t>
         </is>
       </c>
     </row>
@@ -1724,52 +1724,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[112]</t>
+          <t>[45]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[112.68]</t>
+          <t>[41.45321952802237]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[101.61000000000001]</t>
+          <t>[38.08416943505104]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[41.45]</t>
+          <t>[16.31]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[93.57]</t>
+          <t>[76.73]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[10284.91]</t>
+          <t>[3020.08]</t>
         </is>
       </c>
     </row>
@@ -1791,52 +1791,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[103]</t>
+          <t>[65]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[103.63]</t>
+          <t>[60.547260812175665]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[88.53]</t>
+          <t>[53.716632429886346]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[40.22]</t>
+          <t>[22.47]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[126.35]</t>
+          <t>[55.65]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[10006.42]</t>
+          <t>[3430.23]</t>
         </is>
       </c>
     </row>
@@ -1858,52 +1858,52 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[143]</t>
+          <t>[45]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[139.84]</t>
+          <t>[43.707815839304104]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[142.86]</t>
+          <t>[39.487026775675595]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[56.84]</t>
+          <t>[14.61]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[96.06]</t>
+          <t>[48.17]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[10449.78]</t>
+          <t>[2048.13]</t>
         </is>
       </c>
     </row>
@@ -1925,64 +1925,64 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[16, 16]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[85]</t>
+          <t>[72, 74]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[85.85]</t>
+          <t>[67.37177565651773, 69.63255625215997]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[71.08999999999999]</t>
+          <t>[59.399762835604356, 60.20628073415235]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[34.17]</t>
+          <t>[24.72, 26.41]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[133.17]</t>
+          <t>[63.98, 59.52]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[9227.84]</t>
+          <t>[4143.48, 4151.28]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1992,52 +1992,52 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[18, 52]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[8, 42]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[140, 180]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[140.18, 166.67]</t>
+          <t>[38.804502707388664]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[138.84, 159.63]</t>
+          <t>[38.804502707388664]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[52.0, 74.53]</t>
+          <t>[12.6]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[76.82, 104.6]</t>
+          <t>[41.29]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[12176.37, 14994.85]</t>
+          <t>[1892.19]</t>
         </is>
       </c>
     </row>
@@ -2059,52 +2059,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[16, 32]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[14, 30]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[84]</t>
+          <t>[29, 27]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[84.17999999999999]</t>
+          <t>[27.16282467254637, 27.124467983765648]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[79.14999999999999]</t>
+          <t>[27.16282467254637, 23.245834758269005]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[36.99]</t>
+          <t>[9.26, 8.77]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[203.45]</t>
+          <t>[45.94, 31.51]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[10095.6]</t>
+          <t>[1419.64, 965.08]</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[12, 12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[18, 30]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[6, 18]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[55, 64]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[54.66, 64.05]</t>
+          <t>[37.60947004445926]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[51.309999999999995, 55.33]</t>
+          <t>[37.60947004445926]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[19.75, 23.78]</t>
+          <t>[11.81]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[102.38, 130.47]</t>
+          <t>[30.5]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[5334.03, 5796.44]</t>
+          <t>[1210.37]</t>
         </is>
       </c>
     </row>
@@ -2193,52 +2193,52 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>[28]</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[94]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[94.57]</t>
+          <t>[26.269711581783056]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[74.10999999999999]</t>
+          <t>[25.75981246323574]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[41.71]</t>
+          <t>[9.09]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[161.77]</t>
+          <t>[31.29]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[11459.74]</t>
+          <t>[1095.61]</t>
         </is>
       </c>
     </row>
@@ -2260,52 +2260,52 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[65]</t>
+          <t>[41]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[65.73]</t>
+          <t>[39.88071382188507]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[58.35]</t>
+          <t>[38.94978139638465]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[23.7]</t>
+          <t>[12.89]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[122.89]</t>
+          <t>[29.12]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[5801.06]</t>
+          <t>[1197.2]</t>
         </is>
       </c>
     </row>
@@ -2327,52 +2327,52 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[95]</t>
+          <t>[33]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[94.89999999999999]</t>
+          <t>[32.62561649087784]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[81.14999999999999]</t>
+          <t>[31.71671240905515]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[36.03]</t>
+          <t>[10.33]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[135.88]</t>
+          <t>[31.01]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[9176.41]</t>
+          <t>[1107.96]</t>
         </is>
       </c>
     </row>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2409,44 +2409,44 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[74]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[74.11]</t>
+          <t>[25.412391993261267]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[62.040000000000006]</t>
+          <t>[23.1067866318623]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[27.75]</t>
+          <t>[8.99]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[139.37]</t>
+          <t>[26.98]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[7096.2]</t>
+          <t>[1088.55]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2461,52 +2461,52 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[62]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[62.38]</t>
+          <t>[27.922221811084167]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[52.32]</t>
+          <t>[27.922221811084167]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[23.96]</t>
+          <t>[9.68]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[142.12]</t>
+          <t>[37.35]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[6040.1]</t>
+          <t>[1364.07]</t>
         </is>
       </c>
     </row>
@@ -2528,52 +2528,52 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[67]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[67.07]</t>
+          <t>[24.94767686517443]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[60.699999999999996]</t>
+          <t>[20.705367370292315]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[25.85]</t>
+          <t>[9.11]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>[114.05]</t>
+          <t>[31.39]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[5726.84]</t>
+          <t>[1034.56]</t>
         </is>
       </c>
     </row>
@@ -2595,52 +2595,52 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[54]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[54.31999999999999]</t>
+          <t>[29.44430377451019]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[49.629999999999995]</t>
+          <t>[26.78382010850035]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[20.28]</t>
+          <t>[10.92]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>[116.29]</t>
+          <t>[57.75]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[4972.0]</t>
+          <t>[1817.25]</t>
         </is>
       </c>
     </row>
@@ -2662,52 +2662,52 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[73]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[73.78]</t>
+          <t>[17.6058226484109]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[69.08999999999999]</t>
+          <t>[16.033730095248536]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>[31.17]</t>
+          <t>[6.25]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>[139.34]</t>
+          <t>[24.48]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[7738.17]</t>
+          <t>[680.63]</t>
         </is>
       </c>
     </row>
@@ -2729,52 +2729,52 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[45]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[44.93]</t>
+          <t>[27.747482274079154]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[44.260000000000005]</t>
+          <t>[23.349752124205402]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[17.94]</t>
+          <t>[9.87]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>[145.22]</t>
+          <t>[39.85]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[4449.28]</t>
+          <t>[1382.74]</t>
         </is>
       </c>
     </row>
@@ -2796,52 +2796,52 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[68]</t>
+          <t>[36]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[68.41]</t>
+          <t>[36.655358358100585]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[57.01]</t>
+          <t>[36.03116282464502]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[26.47]</t>
+          <t>[12.22]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>[146.0]</t>
+          <t>[37.99]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[6377.62]</t>
+          <t>[1396.3]</t>
         </is>
       </c>
     </row>
@@ -2863,12 +2863,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2878,37 +2878,37 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[83]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[83.16]</t>
+          <t>[33.88609227146581]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[68.07]</t>
+          <t>[33.88609227146581]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[29.64]</t>
+          <t>[9.78]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>[88.15]</t>
+          <t>[15.78]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[6467.83]</t>
+          <t>[937.85]</t>
         </is>
       </c>
     </row>
@@ -2930,52 +2930,52 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[78]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[78.47]</t>
+          <t>[30.859845750899]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[67.07]</t>
+          <t>[25.247048714115387]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[29.08]</t>
+          <t>[10.24]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>[146.41]</t>
+          <t>[41.83]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[7069.06]</t>
+          <t>[1583.9]</t>
         </is>
       </c>
     </row>
@@ -2997,64 +2997,64 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[65]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[65.73]</t>
+          <t>[31.08026951869021]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[56.68000000000001]</t>
+          <t>[30.225517364047413]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[26.69]</t>
+          <t>[11.34]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>[131.72]</t>
+          <t>[41.58]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[6296.06]</t>
+          <t>[1332.24]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3064,22 +3064,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3089,27 +3089,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[79.82]</t>
+          <t>[77.89964286114466]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[71.77]</t>
+          <t>[69.88378466261996]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[29.73]</t>
+          <t>[27.95]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>[96.76]</t>
+          <t>[53.02]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[6628.12]</t>
+          <t>[4564.14]</t>
         </is>
       </c>
     </row>
@@ -3131,52 +3131,52 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[189]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[189.81]</t>
+          <t>[99.31498765662765]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[188.47]</t>
+          <t>[95.37481608003014]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[90.46]</t>
+          <t>[30.35]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>[206.84]</t>
+          <t>[50.18]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[28160.15]</t>
+          <t>[4494.74]</t>
         </is>
       </c>
     </row>
@@ -3198,52 +3198,52 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16, 16]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[187]</t>
+          <t>[94, 89]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[187.47]</t>
+          <t>[92.25724113066084, 86.86735922917967]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[178.41]</t>
+          <t>[92.25724113066084, 86.86735922917967]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>[71.22]</t>
+          <t>[29.61, 27.38]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>[92.0]</t>
+          <t>[46.3, 41.53]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[19613.36]</t>
+          <t>[4557.16, 4262.81]</t>
         </is>
       </c>
     </row>
@@ -3265,52 +3265,52 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[20, 20]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[199, 179]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[199.2, 178.74]</t>
+          <t>[57.012798870862994]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[178.41, 171.37]</t>
+          <t>[54.53279241896345]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[89.73, 80.7]</t>
+          <t>[19.62]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>[202.61, 204.84]</t>
+          <t>[30.04]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[26129.26, 23717.0]</t>
+          <t>[2359.18]</t>
         </is>
       </c>
     </row>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3347,37 +3347,37 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[137]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[137.16]</t>
+          <t>[34.692940575509]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[113.69]</t>
+          <t>[29.04371331668617]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>[52.9]</t>
+          <t>[14.05]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[114.63]</t>
+          <t>[43.38]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[13788.54]</t>
+          <t>[1834.96]</t>
         </is>
       </c>
     </row>
@@ -3399,119 +3399,119 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[36]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[88]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[86.85]</t>
+          <t>[20.3803591604263]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[86.18]</t>
+          <t>[17.442413228205364]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[39.85]</t>
+          <t>[6.59]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>[195.87]</t>
+          <t>[29.5]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[12143.53]</t>
+          <t>[1118.38]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[34]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[44]</t>
+          <t>[45]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[43.6]</t>
+          <t>[44.69992479110479]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[36.22]</t>
+          <t>[41.65069457049674]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[15.31]</t>
+          <t>[16.27]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>[128.84]</t>
+          <t>[27.13]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[4169.25]</t>
+          <t>[1754.07]</t>
         </is>
       </c>
     </row>
@@ -3533,52 +3533,52 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[120]</t>
+          <t>[47]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[120.06]</t>
+          <t>[47.42702990086497]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[105.63]</t>
+          <t>[40.54913382958789]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[51.7]</t>
+          <t>[15.9]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>[146.09]</t>
+          <t>[32.27]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[13653.89]</t>
+          <t>[1849.96]</t>
         </is>
       </c>
     </row>
@@ -3600,52 +3600,52 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[30, 30]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[114]</t>
+          <t>[28, 27]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[114.35]</t>
+          <t>[27.665696267723675, 24.929895725516058]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[93.9]</t>
+          <t>[19.837290080684998, 24.32846468472714]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[45.2]</t>
+          <t>[9.49, 8.21]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[132.56]</t>
+          <t>[26.61, 19.26]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[12118.11]</t>
+          <t>[1100.82, 885.8]</t>
         </is>
       </c>
     </row>
@@ -3667,52 +3667,52 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[12, 12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[66, 62]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[66.06, 62.37]</t>
+          <t>[13.294327254862067]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[57.68000000000001, 51.31]</t>
+          <t>[13.157085315612026]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[25.79, 25.4]</t>
+          <t>[3.74]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>[162.73, 159.78]</t>
+          <t>[6.65]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[7784.66, 7733.45]</t>
+          <t>[814.05]</t>
         </is>
       </c>
     </row>
@@ -3734,52 +3734,52 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[20, 32]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[34, 39]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[33.87]</t>
+          <t>[34.33006961677288, 36.88997227677974]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[32.529999999999994]</t>
+          <t>[33.577811206248086, 34.060286830974796]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[14.76]</t>
+          <t>[11.61, 11.21]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>[486.57]</t>
+          <t>[33.75, 23.4]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[5623.93]</t>
+          <t>[1672.63, 1305.56]</t>
         </is>
       </c>
     </row>
@@ -3801,64 +3801,64 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[12, 10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[32, 34]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[18, 20]</t>
+          <t>[30, 32]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[68, 88]</t>
+          <t>[41, 38]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[67.74, 87.86]</t>
+          <t>[38.954274954633355, 36.00809755285475]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[63.05, 80.82000000000001]</t>
+          <t>[31.21942038696414, 33.41285274762477]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>[26.5, 31.92]</t>
+          <t>[13.37, 11.97]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>[132.28, 143.61]</t>
+          <t>[23.49, 22.9]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[8147.9, 8758.21]</t>
+          <t>[1490.44, 1183.58]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3868,52 +3868,52 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[10, 12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[30, 32]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[20, 20]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[95, 84]</t>
+          <t>[126]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[95.57, 84.17]</t>
+          <t>[119.14403986182957]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[81.82, 75.12]</t>
+          <t>[88.5120814668456]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[36.37, 33.84]</t>
+          <t>[42.74]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>[132.36, 133.14]</t>
+          <t>[33.33]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[9567.42, 9677.98]</t>
+          <t>[4603.86]</t>
         </is>
       </c>
     </row>
@@ -3935,52 +3935,52 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[275]</t>
+          <t>[92]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[275.66]</t>
+          <t>[91.47126299123049]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[222.67000000000002]</t>
+          <t>[90.3232009521228]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[97.41]</t>
+          <t>[32.65]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>[83.92]</t>
+          <t>[44.36]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[19719.56]</t>
+          <t>[4986.41]</t>
         </is>
       </c>
     </row>
@@ -4002,52 +4002,52 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16, 28]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[223]</t>
+          <t>[98, 176]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[223.35]</t>
+          <t>[97.18630927863279, 165.33972879954976]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[181.76000000000002]</t>
+          <t>[97.18630927863279, 170.95314336153376]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[84.26]</t>
+          <t>[34.74, 54.06]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>[80.42]</t>
+          <t>[45.38, 21.23]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[16923.88]</t>
+          <t>[5267.7, 4441.84]</t>
         </is>
       </c>
     </row>
@@ -4069,52 +4069,52 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[20, 20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[242, 311]</t>
+          <t>[109]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[241.79000000000002, 311.21000000000004]</t>
+          <t>[108.16125018264844]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[238.44, 305.18]</t>
+          <t>[101.56372099132867]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[96.79, 81.36]</t>
+          <t>[35.56]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>[105.23, 32.49]</t>
+          <t>[41.63]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[21845.04, 10961.05]</t>
+          <t>[5127.71]</t>
         </is>
       </c>
     </row>
@@ -4136,52 +4136,52 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[241]</t>
+          <t>[110]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>[240.45000000000002]</t>
+          <t>[106.25152611019725]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[206.91]</t>
+          <t>[99.44980825950968]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[90.45]</t>
+          <t>[41.26]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[103.41]</t>
+          <t>[55.04]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[19400.23]</t>
+          <t>[6939.63]</t>
         </is>
       </c>
     </row>
@@ -4203,52 +4203,52 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[50]</t>
+          <t>[18, 34]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[40]</t>
+          <t>[16, 32]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[251]</t>
+          <t>[112, 131]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[251.18]</t>
+          <t>[108.01407922895201, 130.78763348821474]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[212.95000000000002]</t>
+          <t>[96.49390912765926, 113.44705542254245]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[99.36]</t>
+          <t>[36.61, 43.01]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>[72.21]</t>
+          <t>[42.39, 31.7]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[16373.61]</t>
+          <t>[5479.91, 4318.06]</t>
         </is>
       </c>
     </row>
@@ -4270,59 +4270,59 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[30, 32]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[20, 22]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[235, 250]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[235.07999999999998, 250.18]</t>
+          <t>[93.25259214827778]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[186.45999999999998, 209.27]</t>
+          <t>[79.30519547624338]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[89.79, 92.47]</t>
+          <t>[35.52]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>[87.27, 80.99]</t>
+          <t>[48.01]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[18952.5, 18280.21]</t>
+          <t>[5713.71]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4337,52 +4337,52 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[234]</t>
+          <t>[70]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>[233.75]</t>
+          <t>[66.0591983786978]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[194.17999999999998]</t>
+          <t>[66.0591983786978]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[93.32]</t>
+          <t>[21.61]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>[96.81]</t>
+          <t>[40.29]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[20411.98]</t>
+          <t>[3160.41]</t>
         </is>
       </c>
     </row>
@@ -4404,52 +4404,52 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>[32]</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[136]</t>
+          <t>[59]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[136.83]</t>
+          <t>[59.16976230335201]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[129.12]</t>
+          <t>[59.16976230335201]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[46.61]</t>
+          <t>[17.45]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>[83.15]</t>
+          <t>[9.52]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[7991.16]</t>
+          <t>[1904.19]</t>
         </is>
       </c>
     </row>
@@ -4471,52 +4471,52 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[115]</t>
+          <t>[77]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>[115.03]</t>
+          <t>[71.14222974971777]</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[94.91]</t>
+          <t>[71.14222974971777]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>[32.47]</t>
+          <t>[23.63]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[50.61]</t>
+          <t>[42.88]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>[5071.71]</t>
+          <t>[3586.45]</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4553,37 +4553,37 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[136]</t>
+          <t>[88]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[135.82000000000002]</t>
+          <t>[85.49072515085162]</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[127.10000000000001]</t>
+          <t>[80.38290886161178]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>[47.0]</t>
+          <t>[26.28]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>[67.93]</t>
+          <t>[54.39]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>[9582.29]</t>
+          <t>[4000.0]</t>
         </is>
       </c>
     </row>
@@ -4605,12 +4605,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4620,37 +4620,37 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[150]</t>
+          <t>[73]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[149.9]</t>
+          <t>[68.506495392711]</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[127.44000000000001]</t>
+          <t>[64.14140679385784]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[48.8]</t>
+          <t>[21.75]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>[78.48]</t>
+          <t>[36.39]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>[9582.67]</t>
+          <t>[2954.34]</t>
         </is>
       </c>
     </row>
@@ -4672,52 +4672,52 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[121]</t>
+          <t>[88]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[121.06]</t>
+          <t>[79.57000489281678]</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[111.0]</t>
+          <t>[76.37024494227703]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[35.93]</t>
+          <t>[27.11]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>[51.24]</t>
+          <t>[46.19]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>[6213.36]</t>
+          <t>[4199.6]</t>
         </is>
       </c>
     </row>
@@ -4739,12 +4739,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4754,37 +4754,37 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[150]</t>
+          <t>[84]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[150.24]</t>
+          <t>[80.21300094189951]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[127.10000000000001]</t>
+          <t>[71.80208819522906]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[45.17]</t>
+          <t>[25.88]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>[63.92]</t>
+          <t>[35.34]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>[8381.88]</t>
+          <t>[3543.97]</t>
         </is>
       </c>
     </row>
@@ -4806,64 +4806,64 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2, 2, 2]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[20, 20, 18]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[18, 18, 16]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[141]</t>
+          <t>[81, 97, 72]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[141.19]</t>
+          <t>[73.50796382636688, 93.4324426631737, 69.76891916976636]</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[135.82000000000002]</t>
+          <t>[69.9397241953125, 85.82637570617062, 69.76891916976636]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[45.35]</t>
+          <t>[23.58, 29.34, 21.72]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>[54.39]</t>
+          <t>[38.63, 54.94, 33.86]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>[8426.46]</t>
+          <t>[3165.1, 5151.58, 3139.1]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4873,52 +4873,52 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[12, 12, 12]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[20, 20, 32]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[8, 8, 20]</t>
+          <t>[16, 28]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[132, 148, 135]</t>
+          <t>[74, 59]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[132.46, 148.9, 135.15]</t>
+          <t>[68.15756503469167, 54.28470884069168]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[128.44, 125.76, 134.14000000000001]</t>
+          <t>[64.58641609237368, 53.12863585479943]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>[39.85, 39.7, 44.22]</t>
+          <t>[24.15, 22.45]</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>[54.83, 55.02, 65.39]</t>
+          <t>[58.06, 41.17]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>[7018.21, 6633.54, 7054.98]</t>
+          <t>[3913.06, 2989.95]</t>
         </is>
       </c>
     </row>
@@ -4940,52 +4940,52 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[28, 30]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[18, 20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[146, 168]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[146.55, 168.35]</t>
+          <t>[55.20957861484356]</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[114.69000000000001, 141.53]</t>
+          <t>[55.20957861484356]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[64.59, 79.8]</t>
+          <t>[21.08]</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>[152.7, 168.98]</t>
+          <t>[33.52]</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>[18159.07, 21143.88]</t>
+          <t>[2607.98]</t>
         </is>
       </c>
     </row>
@@ -5007,52 +5007,52 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>[28]</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[146]</t>
+          <t>[59]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[146.54999999999998]</t>
+          <t>[56.271998722071835]</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[114.02000000000001]</t>
+          <t>[56.271998722071835]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>[60.73]</t>
+          <t>[20.41]</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>[105.68]</t>
+          <t>[35.05]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>[15117.76]</t>
+          <t>[2513.76]</t>
         </is>
       </c>
     </row>
@@ -5074,12 +5074,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5089,37 +5089,37 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[156]</t>
+          <t>[46]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[156.28]</t>
+          <t>[45.928779122076406]</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[153.92999999999998]</t>
+          <t>[39.41673357903083]</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[65.66]</t>
+          <t>[13.88]</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>[131.49]</t>
+          <t>[15.97]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>[17509.99]</t>
+          <t>[1884.88]</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5141,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5156,37 +5156,37 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[96]</t>
+          <t>[70]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[96.92]</t>
+          <t>[69.07506137381468]</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[84.51]</t>
+          <t>[68.19823150131346]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[32.99]</t>
+          <t>[23.35]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>[98.57]</t>
+          <t>[27.44]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>[8301.34]</t>
+          <t>[2670.9]</t>
         </is>
       </c>
     </row>
@@ -5208,52 +5208,52 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[174]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[174.38]</t>
+          <t>[62.020959921278035]</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[155.94]</t>
+          <t>[62.020959921278035]</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[68.75]</t>
+          <t>[22.01]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>[127.92]</t>
+          <t>[41.57]</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>[17405.68]</t>
+          <t>[2727.98]</t>
         </is>
       </c>
     </row>
@@ -5275,52 +5275,52 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[153]</t>
+          <t>[44]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[153.93]</t>
+          <t>[44.21312536016151]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[140.85]</t>
+          <t>[42.76459551987627]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[61.1]</t>
+          <t>[15.45]</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>[117.26]</t>
+          <t>[23.16]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>[15011.63]</t>
+          <t>[1854.75]</t>
         </is>
       </c>
     </row>
@@ -5342,52 +5342,52 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[113]</t>
+          <t>[63]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[112.67999999999999]</t>
+          <t>[61.46320937415982]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[105.31]</t>
+          <t>[61.46320937415982]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[46.59]</t>
+          <t>[21.71]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>[137.57]</t>
+          <t>[34.42]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>[13202.85]</t>
+          <t>[2076.71]</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5424,44 +5424,44 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[152]</t>
+          <t>[60]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[152.59]</t>
+          <t>[57.23390227948497]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[151.25]</t>
+          <t>[57.23390227948497]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[59.46]</t>
+          <t>[21.94]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>[125.84]</t>
+          <t>[38.0]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>[14830.6]</t>
+          <t>[2870.19]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5476,52 +5476,52 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[30, 30]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[153]</t>
+          <t>[42, 45]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[153.59]</t>
+          <t>[41.12823357252735, 44.45979402497909]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[131.13]</t>
+          <t>[40.44347375302254, 43.417592702492655]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[65.49]</t>
+          <t>[11.88, 14.37]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>[123.98]</t>
+          <t>[16.51, 25.35]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>[16849.11]</t>
+          <t>[1033.49, 1491.82]</t>
         </is>
       </c>
     </row>
@@ -5543,52 +5543,52 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[20, 28]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[95, 112]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[94.89999999999999, 111.0]</t>
+          <t>[37.1139849496659]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[81.83, 106.98]</t>
+          <t>[33.43828079471414]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[34.85, 42.48]</t>
+          <t>[10.41]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>[144.5, 107.72]</t>
+          <t>[9.87]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>[9739.65, 10195.39]</t>
+          <t>[1100.22]</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5620,42 +5620,42 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>[28]</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[92]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[91.55]</t>
+          <t>[53.66307321626935]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[83.84]</t>
+          <t>[53.2065801772237]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[36.4]</t>
+          <t>[17.76]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>[157.29]</t>
+          <t>[29.87]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>[10504.11]</t>
+          <t>[1762.94]</t>
         </is>
       </c>
     </row>
@@ -5677,52 +5677,52 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[140]</t>
+          <t>[63]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[140.18]</t>
+          <t>[60.143588332225846]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[134.48000000000002]</t>
+          <t>[60.143588332225846]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[55.74]</t>
+          <t>[21.29]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>[113.55]</t>
+          <t>[25.1]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>[14850.01]</t>
+          <t>[2588.28]</t>
         </is>
       </c>
     </row>
@@ -5744,52 +5744,52 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[152]</t>
+          <t>[100]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[152.92]</t>
+          <t>[97.35325665112374]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[134.14]</t>
+          <t>[78.81769772222889]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[61.26]</t>
+          <t>[28.24]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>[140.89]</t>
+          <t>[21.44]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>[16535.37]</t>
+          <t>[2527.4]</t>
         </is>
       </c>
     </row>
@@ -5811,12 +5811,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5826,37 +5826,37 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[153]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[153.59]</t>
+          <t>[55.50028662687221]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[135.49]</t>
+          <t>[55.50028662687221]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>[38.55]</t>
+          <t>[17.27]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>[42.72]</t>
+          <t>[36.42]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>[3462.56]</t>
+          <t>[2051.4]</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5878,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5893,37 +5893,37 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[140]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[140.18]</t>
+          <t>[61.589912709461416]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[134.15]</t>
+          <t>[61.589912709461416]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[56.34]</t>
+          <t>[18.71]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>[157.69]</t>
+          <t>[31.05]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>[16454.96]</t>
+          <t>[2480.36]</t>
         </is>
       </c>
     </row>
@@ -5945,64 +5945,64 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[156]</t>
+          <t>[61]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[156.27]</t>
+          <t>[60.401295906638765]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[143.53]</t>
+          <t>[57.35624313697035]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[61.66]</t>
+          <t>[20.49]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>[115.21]</t>
+          <t>[39.87]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>[15174.66]</t>
+          <t>[3092.92]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6012,12 +6012,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6027,37 +6027,37 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[123]</t>
+          <t>[90]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[123.41]</t>
+          <t>[86.78742873443352]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[107.99]</t>
+          <t>[75.17787924541061]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[47.98]</t>
+          <t>[29.94]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>[153.23]</t>
+          <t>[32.79]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>[13300.14]</t>
+          <t>[3003.01]</t>
         </is>
       </c>
     </row>
@@ -6079,52 +6079,52 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[210]</t>
+          <t>[117]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[208.25]</t>
+          <t>[113.75616327438566]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[170.69]</t>
+          <t>[98.80007362198285]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>[80.37]</t>
+          <t>[41.09]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>[152.47]</t>
+          <t>[54.86]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>[21872.68]</t>
+          <t>[6457.9]</t>
         </is>
       </c>
     </row>
@@ -6146,52 +6146,52 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[288]</t>
+          <t>[147]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[274.66]</t>
+          <t>[137.50889554959002]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>[281.03000000000003]</t>
+          <t>[115.67515128965667]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>[120.91]</t>
+          <t>[50.56]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>[89.99]</t>
+          <t>[41.7]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>[25862.07]</t>
+          <t>[7528.27]</t>
         </is>
       </c>
     </row>
@@ -6213,52 +6213,52 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[307]</t>
+          <t>[183]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[306.85]</t>
+          <t>[179.6598565617463]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>[277.68]</t>
+          <t>[169.88548358830624]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>[113.08]</t>
+          <t>[58.81]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>[116.4]</t>
+          <t>[36.36]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>[28961.0]</t>
+          <t>[7754.48]</t>
         </is>
       </c>
     </row>
@@ -6280,52 +6280,52 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[312]</t>
+          <t>[188]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[312.89]</t>
+          <t>[186.8821991819847]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>[312.89]</t>
+          <t>[174.57197885136426]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>[88.61]</t>
+          <t>[59.93]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>[53.59]</t>
+          <t>[22.44]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>[17102.59]</t>
+          <t>[4690.96]</t>
         </is>
       </c>
     </row>
@@ -6347,52 +6347,52 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[299]</t>
+          <t>[122]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[298.8]</t>
+          <t>[117.68030095711552]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[282.37]</t>
+          <t>[111.11383835257956]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[81.89]</t>
+          <t>[44.5]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>[44.95]</t>
+          <t>[44.93]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>[11856.75]</t>
+          <t>[6199.74]</t>
         </is>
       </c>
     </row>
@@ -6414,52 +6414,52 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[18, 32]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[16, 30]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[279]</t>
+          <t>[114, 160]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[279.35]</t>
+          <t>[107.13085047442584, 155.3787294443875]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>[237.43]</t>
+          <t>[107.13085047442584, 108.37796571578853]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>[119.14]</t>
+          <t>[37.13, 50.26]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>[172.65]</t>
+          <t>[49.81, 29.87]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>[32613.87]</t>
+          <t>[5614.22, 5030.37]</t>
         </is>
       </c>
     </row>
@@ -6481,119 +6481,119 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[20, 20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[232, 318]</t>
+          <t>[129]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[231.73000000000002, 318.93]</t>
+          <t>[128.61281572791498]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[214.3, 282.38]</t>
+          <t>[111.84684750185242]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>[97.29, 99.76]</t>
+          <t>[43.99]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>[200.81, 77.85]</t>
+          <t>[38.97]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>[27488.47, 23233.1]</t>
+          <t>[6032.05]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[16, 28]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[259]</t>
+          <t>[44, 35]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[258.89000000000004]</t>
+          <t>[41.37367640996417, 34.94050742708654]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>[228.38000000000002]</t>
+          <t>[41.37367640996417, 34.42876878306384]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[108.86]</t>
+          <t>[14.41, 10.15]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>[173.57]</t>
+          <t>[39.38, 13.98]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>[29697.27]</t>
+          <t>[1928.08, 868.7]</t>
         </is>
       </c>
     </row>
@@ -6615,52 +6615,52 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[12, 12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[32, 30]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[20, 18]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[91, 86]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[91.22, 86.86]</t>
+          <t>[32.40894577058911]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[87.53, 82.5]</t>
+          <t>[27.872272450115613]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[36.62, 34.83]</t>
+          <t>[9.64]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>[147.6, 203.87]</t>
+          <t>[16.26]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>[10840.95, 10910.9]</t>
+          <t>[872.84]</t>
         </is>
       </c>
     </row>
@@ -6682,52 +6682,52 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[80]</t>
+          <t>[47]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[80.82]</t>
+          <t>[45.11432843779984]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>[74.44999999999999]</t>
+          <t>[45.01365726001295]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[33.83]</t>
+          <t>[16.3]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>[230.14]</t>
+          <t>[50.88]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>[10853.4]</t>
+          <t>[2593.78]</t>
         </is>
       </c>
     </row>
@@ -6749,52 +6749,52 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[116]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[113.35]</t>
+          <t>[39.38547301865003]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[94.24]</t>
+          <t>[39.38547301865003]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[52.69]</t>
+          <t>[12.47]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>[155.75]</t>
+          <t>[27.19]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>[14195.33]</t>
+          <t>[1398.13]</t>
         </is>
       </c>
     </row>
@@ -6816,52 +6816,52 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[103]</t>
+          <t>[40]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[103.29]</t>
+          <t>[36.79391028851607]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>[102.95]</t>
+          <t>[34.1949615403443]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>[46.99]</t>
+          <t>[12.83]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>[225.81]</t>
+          <t>[25.02]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>[15597.4]</t>
+          <t>[1276.1]</t>
         </is>
       </c>
     </row>
@@ -6883,64 +6883,64 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[30, 30]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[97]</t>
+          <t>[46, 41]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[97.92]</t>
+          <t>[46.35558293624084, 38.00640630973891]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>[82.16]</t>
+          <t>[46.35558293624084, 38.00640630973891]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>[42.33]</t>
+          <t>[14.43, 12.81]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>[177.19]</t>
+          <t>[22.77, 30.23]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>[13312.44]</t>
+          <t>[1378.86, 1319.6]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6950,52 +6950,52 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[12, 12]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[30, 32]</t>
+          <t>[16, 18]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[18, 20]</t>
+          <t>[14, 16]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[116, 94]</t>
+          <t>[103, 90]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[115.69, 94.57]</t>
+          <t>[98.92723214829337, 88.13654938211133]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>[99.27, 90.88]</t>
+          <t>[82.96938100687095, 76.71898102625806]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>[52.26, 38.79]</t>
+          <t>[32.87, 30.18]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>[187.19, 193.04]</t>
+          <t>[54.93, 37.72]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>[16536.77, 11853.4]</t>
+          <t>[4914.13, 3908.41]</t>
         </is>
       </c>
     </row>
@@ -7017,52 +7017,52 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[20, 20]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[221, 192]</t>
+          <t>[113]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[221.0, 192.83]</t>
+          <t>[107.97221239746013]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>[216.31, 163.66]</t>
+          <t>[94.73032515168934]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>[92.07, 74.34]</t>
+          <t>[38.79]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>[128.95, 117.49]</t>
+          <t>[28.87]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>[21898.04, 17523.74]</t>
+          <t>[3553.39]</t>
         </is>
       </c>
     </row>
@@ -7084,52 +7084,52 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[223]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[223.68]</t>
+          <t>[79.54819881530756]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>[188.14]</t>
+          <t>[79.49945389433788]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>[90.35]</t>
+          <t>[30.62]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>[125.41]</t>
+          <t>[69.25]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>[21477.3]</t>
+          <t>[5177.13]</t>
         </is>
       </c>
     </row>
@@ -7151,52 +7151,52 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[212]</t>
+          <t>[87]</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[193.17]</t>
+          <t>[81.12670331244388]</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>[207.25]</t>
+          <t>[68.19635100725603]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>[87.11]</t>
+          <t>[29.4]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>[118.3]</t>
+          <t>[44.08]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>[19756.5]</t>
+          <t>[4181.98]</t>
         </is>
       </c>
     </row>
@@ -7218,52 +7218,52 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16, 16]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[194]</t>
+          <t>[93, 71]</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>[194.84]</t>
+          <t>[91.98831993895153, 71.07041523311636]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>[179.75]</t>
+          <t>[91.98831993895153, 66.50627117219223]</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>[81.68]</t>
+          <t>[29.96, 25.11]</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>[157.37]</t>
+          <t>[46.88, 34.71]</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>[20143.85]</t>
+          <t>[4268.85, 3284.76]</t>
         </is>
       </c>
     </row>
@@ -7285,52 +7285,52 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[20, 30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[10, 20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[170, 176]</t>
+          <t>[104]</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>[170.35999999999999, 176.06]</t>
+          <t>[102.08160298929063]</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>[155.6, 150.57]</t>
+          <t>[81.96334539433394]</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>[63.28, 70.68]</t>
+          <t>[33.59]</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>[99.92, 127.22]</t>
+          <t>[40.3]</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>[15712.9, 16950.54]</t>
+          <t>[4492.06]</t>
         </is>
       </c>
     </row>
@@ -7352,52 +7352,52 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[199]</t>
+          <t>[88]</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>[199.53]</t>
+          <t>[85.00316731552465]</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>[184.44]</t>
+          <t>[67.37174832760881]</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>[77.79]</t>
+          <t>[29.92]</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>[115.33]</t>
+          <t>[40.1]</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>[18281.51]</t>
+          <t>[4140.32]</t>
         </is>
       </c>
     </row>
@@ -7419,59 +7419,59 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[193]</t>
+          <t>[96]</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>[193.16]</t>
+          <t>[92.71265036536886]</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>[161.31]</t>
+          <t>[77.32101493747103]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>[78.46]</t>
+          <t>[31.72]</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>[139.79]</t>
+          <t>[45.28]</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>[19424.22]</t>
+          <t>[4157.56]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7486,52 +7486,52 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[188]</t>
+          <t>[72]</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>[188.47]</t>
+          <t>[72.13251683196465]</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>[174.05]</t>
+          <t>[55.56145069844642]</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>[74.49]</t>
+          <t>[22.81]</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>[111.95]</t>
+          <t>[34.59]</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>[17677.48]</t>
+          <t>[2189.33]</t>
         </is>
       </c>
     </row>
@@ -7553,12 +7553,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7568,37 +7568,37 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[144]</t>
+          <t>[78]</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>[144.2]</t>
+          <t>[71.60213370846034]</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>[133.14]</t>
+          <t>[68.97138176414914]</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>[42.18]</t>
+          <t>[25.18]</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[29.14]</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>[7902.08]</t>
+          <t>[2541.2]</t>
         </is>
       </c>
     </row>
@@ -7620,52 +7620,52 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[163]</t>
+          <t>[97]</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>[163.32]</t>
+          <t>[92.72406248262513]</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>[144.2]</t>
+          <t>[77.9030693144562]</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>[47.02]</t>
+          <t>[30.01]</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>[56.96]</t>
+          <t>[32.6]</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>[8113.97]</t>
+          <t>[3923.92]</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7702,37 +7702,37 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[180]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>[180.09]</t>
+          <t>[82.62724291752032]</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>[165.33]</t>
+          <t>[80.94017739825928]</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>[52.54]</t>
+          <t>[26.94]</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>[38.83]</t>
+          <t>[23.7]</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>[7686.75]</t>
+          <t>[2594.65]</t>
         </is>
       </c>
     </row>
@@ -7754,52 +7754,52 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[171]</t>
+          <t>[66]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>[171.37]</t>
+          <t>[63.010439250963145]</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>[150.58]</t>
+          <t>[60.316799699776276]</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>[48.31]</t>
+          <t>[20.49]</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>[31.06]</t>
+          <t>[29.26]</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>[6965.42]</t>
+          <t>[1838.77]</t>
         </is>
       </c>
     </row>
@@ -7821,52 +7821,52 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[24]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[138]</t>
+          <t>[93]</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>[138.16]</t>
+          <t>[90.40870747446812]</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>[120.73]</t>
+          <t>[90.40870747446812]</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>[39.82]</t>
+          <t>[29.77]</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>[47.29]</t>
+          <t>[29.74]</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>[8078.89]</t>
+          <t>[3688.0]</t>
         </is>
       </c>
     </row>
@@ -7888,52 +7888,52 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[184]</t>
+          <t>[60]</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>[184.44]</t>
+          <t>[58.85598520954735]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>[183.77]</t>
+          <t>[56.66457548769969]</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>[55.18]</t>
+          <t>[21.44]</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>[33.38]</t>
+          <t>[46.63]</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>[9755.46]</t>
+          <t>[2999.25]</t>
         </is>
       </c>
     </row>
@@ -7955,52 +7955,52 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[113]</t>
+          <t>[67]</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>[112.67999999999999]</t>
+          <t>[66.79337937128457]</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>[105.64]</t>
+          <t>[65.48719276425226]</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>[35.66]</t>
+          <t>[21.73]</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>[70.6]</t>
+          <t>[14.18]</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>[7710.49]</t>
+          <t>[1776.36]</t>
         </is>
       </c>
     </row>
@@ -8022,64 +8022,64 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[116]</t>
+          <t>[78]</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>[116.36]</t>
+          <t>[70.82348730591765]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>[113.01]</t>
+          <t>[69.0580351457613]</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>[32.44]</t>
+          <t>[24.53]</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>[16.97]</t>
+          <t>[33.61]</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>[4227.16]</t>
+          <t>[3035.4]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -8089,52 +8089,52 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[145]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>[145.54]</t>
+          <t>[61.87883273129375]</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>[131.12]</t>
+          <t>[59.68401202963443]</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>[44.03]</t>
+          <t>[19.51]</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>[69.22]</t>
+          <t>[25.94]</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>[8797.98]</t>
+          <t>[1764.17]</t>
         </is>
       </c>
     </row>
@@ -8156,52 +8156,52 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[154]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>[154.26]</t>
+          <t>[55.9885468929738]</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>[141.51999999999998]</t>
+          <t>[55.9885468929738]</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>[59.89]</t>
+          <t>[18.59]</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>[128.74]</t>
+          <t>[21.27]</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>[13594.32]</t>
+          <t>[1635.4]</t>
         </is>
       </c>
     </row>
@@ -8223,52 +8223,52 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[32, 30]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[30, 28]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[148]</t>
+          <t>[50, 56]</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>[148.23]</t>
+          <t>[49.981096910856465, 56.17176043761566]</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>[139.17999999999998]</t>
+          <t>[49.73208016186208, 56.17176043761566]</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>[57.92]</t>
+          <t>[16.88, 17.04]</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>[104.72]</t>
+          <t>[32.53, 17.85]</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>[12618.77]</t>
+          <t>[1705.99, 1529.01]</t>
         </is>
       </c>
     </row>
@@ -8290,52 +8290,52 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[20, 20]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[121, 139]</t>
+          <t>[47]</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>[120.72, 139.17]</t>
+          <t>[44.57072617497598]</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>[99.94, 138.84]</t>
+          <t>[44.57072617497598]</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>[45.77, 51.38]</t>
+          <t>[14.84]</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>[114.2, 104.68]</t>
+          <t>[40.05]</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>[10102.37, 11336.15]</t>
+          <t>[1753.86]</t>
         </is>
       </c>
     </row>
@@ -8357,52 +8357,52 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[116]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>[116.03]</t>
+          <t>[57.7823850395153]</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>[97.25]</t>
+          <t>[57.7823850395153]</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>[42.11]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>[90.12]</t>
+          <t>[19.14]</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>[8658.24]</t>
+          <t>[1304.07]</t>
         </is>
       </c>
     </row>
@@ -8424,52 +8424,52 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[136]</t>
+          <t>[38]</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>[136.49]</t>
+          <t>[36.76858640617366]</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>[124.08000000000001]</t>
+          <t>[34.78235881595512]</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>[48.49]</t>
+          <t>[12.68]</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>[108.6]</t>
+          <t>[20.69]</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>[10944.18]</t>
+          <t>[1134.02]</t>
         </is>
       </c>
     </row>
@@ -8491,52 +8491,52 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[95]</t>
+          <t>[72]</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>[95.24]</t>
+          <t>[69.06809975461748]</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>[90.53999999999999]</t>
+          <t>[69.06809975461748]</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>[34.91]</t>
+          <t>[26.48]</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>[107.47]</t>
+          <t>[73.99]</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>[7387.58]</t>
+          <t>[4857.97]</t>
         </is>
       </c>
     </row>
@@ -8558,52 +8558,52 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[42]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[214]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>[170.7]</t>
+          <t>[60.894247292336516]</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>[207.25]</t>
+          <t>[55.91152654001202]</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>[84.64]</t>
+          <t>[18.84]</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>[111.9]</t>
+          <t>[20.08]</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>[18427.14]</t>
+          <t>[1644.6]</t>
         </is>
       </c>
     </row>
@@ -8625,59 +8625,59 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[144]</t>
+          <t>[52]</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>[143.85999999999999]</t>
+          <t>[51.34405652741073]</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>[119.72]</t>
+          <t>[48.31325990394013]</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>[55.18]</t>
+          <t>[15.76]</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>[102.68]</t>
+          <t>[18.73]</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>[12746.04]</t>
+          <t>[1374.58]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8692,52 +8692,52 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[124]</t>
+          <t>[65]</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>[124.08]</t>
+          <t>[64.08209154372676]</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>[108.32]</t>
+          <t>[64.08209154372676]</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>[45.05]</t>
+          <t>[23.21]</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>[109.57]</t>
+          <t>[51.98]</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>[9868.67]</t>
+          <t>[3412.2]</t>
         </is>
       </c>
     </row>
@@ -8759,52 +8759,52 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>[28]</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>[18]</t>
-        </is>
-      </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[162]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>[161.97]</t>
+          <t>[36.87715457384766]</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>[135.48000000000002]</t>
+          <t>[32.47671713724356]</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>[63.22]</t>
+          <t>[11.18]</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>[116.59]</t>
+          <t>[13.63]</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>[16776.86]</t>
+          <t>[955.5]</t>
         </is>
       </c>
     </row>
@@ -8826,52 +8826,52 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[28, 32]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[26, 30]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[88]</t>
+          <t>[48, 48]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>[87.86]</t>
+          <t>[45.69136263944198, 47.04655218193066]</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>[76.13]</t>
+          <t>[44.482477384299116, 46.38607699622134]</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>[34.1]</t>
+          <t>[13.89, 15.75]</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>[128.32]</t>
+          <t>[16.9, 25.21]</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>[10163.93]</t>
+          <t>[1273.42, 1478.75]</t>
         </is>
       </c>
     </row>
@@ -8893,52 +8893,52 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[2, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[28, 20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>[119, 128]</t>
+          <t>[52]</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>[118.71, 128.78]</t>
+          <t>[52.23470749059706]</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>[112.01, 108.99000000000001]</t>
+          <t>[52.23470749059706]</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>[46.81, 53.86]</t>
+          <t>[17.03]</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>[168.59, 149.72]</t>
+          <t>[31.02]</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>[13603.65, 15493.5]</t>
+          <t>[1735.17]</t>
         </is>
       </c>
     </row>
@@ -8960,52 +8960,52 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[143]</t>
+          <t>[52]</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>[143.87]</t>
+          <t>[51.853452142606585]</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>[135.15]</t>
+          <t>[51.853452142606585]</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>[63.49]</t>
+          <t>[17.89]</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>[209.98]</t>
+          <t>[33.3]</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>[19187.01]</t>
+          <t>[1751.87]</t>
         </is>
       </c>
     </row>
@@ -9027,52 +9027,52 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[133]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>[133.47]</t>
+          <t>[37.620481659462996]</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>[114.35]</t>
+          <t>[34.71643324325585]</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>[55.72]</t>
+          <t>[12.69]</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>[154.91]</t>
+          <t>[31.63]</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>[15440.16]</t>
+          <t>[1607.09]</t>
         </is>
       </c>
     </row>
@@ -9094,64 +9094,64 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>[20]</t>
-        </is>
-      </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>[81]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>[81.83]</t>
+          <t>[30.265275632766304]</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>[75.46]</t>
+          <t>[26.697149473677893]</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>[32.64]</t>
+          <t>[11.32]</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>[143.62]</t>
+          <t>[32.63]</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>[9316.05]</t>
+          <t>[1106.22]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -9161,52 +9161,52 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[85]</t>
+          <t>[93]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[85.18]</t>
+          <t>[89.44072787074697]</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>[79.14]</t>
+          <t>[75.73319788168175]</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>[37.09]</t>
+          <t>[29.56]</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>[197.67]</t>
+          <t>[38.55]</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>[10907.08]</t>
+          <t>[4279.67]</t>
         </is>
       </c>
     </row>
@@ -9228,52 +9228,52 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[184]</t>
+          <t>[74]</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[184.10999999999999]</t>
+          <t>[71.95572669196675]</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>[155.26999999999998]</t>
+          <t>[59.49603948931558]</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>[82.4]</t>
+          <t>[24.87]</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>[194.64]</t>
+          <t>[38.94]</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>[24688.61]</t>
+          <t>[3687.82]</t>
         </is>
       </c>
     </row>
@@ -9295,52 +9295,52 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
           <t>[30]</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>[24]</t>
-        </is>
-      </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[154]</t>
+          <t>[143]</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>[153.93]</t>
+          <t>[130.71152254936533]</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>[135.15]</t>
+          <t>[120.40725590392015]</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>[63.26]</t>
+          <t>[46.91]</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>[148.74]</t>
+          <t>[26.99]</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>[17363.57]</t>
+          <t>[4245.61]</t>
         </is>
       </c>
     </row>
@@ -9362,52 +9362,52 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[250]</t>
+          <t>[71]</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>[250.18]</t>
+          <t>[64.95735375722688]</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>[234.76]</t>
+          <t>[58.470355908413616]</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>[81.47]</t>
+          <t>[25.72]</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>[92.99]</t>
+          <t>[64.94]</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>[17480.66]</t>
+          <t>[4534.51]</t>
         </is>
       </c>
     </row>
@@ -9429,52 +9429,52 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[159]</t>
+          <t>[111]</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>[159.63]</t>
+          <t>[109.99670769762287]</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>[133.14]</t>
+          <t>[109.99670769762287]</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>[70.09]</t>
+          <t>[42.08]</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>[153.54]</t>
+          <t>[47.33]</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>[17231.25]</t>
+          <t>[6373.27]</t>
         </is>
       </c>
     </row>
@@ -9496,52 +9496,52 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[50]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[40]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[251]</t>
+          <t>[89]</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>[250.84]</t>
+          <t>[87.46482733403951]</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>[214.95999999999998]</t>
+          <t>[72.92630677718111]</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>[111.18]</t>
+          <t>[30.0]</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>[151.64]</t>
+          <t>[41.43]</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>[25300.9]</t>
+          <t>[4296.01]</t>
         </is>
       </c>
     </row>
@@ -9563,52 +9563,52 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[54]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[206]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>[206.58]</t>
+          <t>[13.025157503360054]</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>[170.70000000000002]</t>
+          <t>[14.6407754314166]</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>[87.48]</t>
+          <t>[6.44]</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>[166.42]</t>
+          <t>[88.44]</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>[23805.73]</t>
+          <t>[1481.93]</t>
         </is>
       </c>
     </row>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -9645,37 +9645,37 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[133]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>[133.14000000000001]</t>
+          <t>[49.03243047302874]</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>[129.11]</t>
+          <t>[46.3442501813324]</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>[55.74]</t>
+          <t>[19.85]</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>[176.76]</t>
+          <t>[43.57]</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>[15823.69]</t>
+          <t>[2638.62]</t>
         </is>
       </c>
     </row>
@@ -9702,47 +9702,47 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[10, 10]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[32, 30]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[22, 20]</t>
+          <t>[16, 16]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[196, 191]</t>
+          <t>[98, 90]</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>[195.51000000000002, 191.48]</t>
+          <t>[92.21275725137035, 84.90692869257478]</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>[162.98000000000002, 177.74]</t>
+          <t>[81.89569880396573, 81.02131829843654]</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>[85.39, 81.62]</t>
+          <t>[32.03, 29.48]</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>[134.89, 165.44]</t>
+          <t>[48.8, 46.63]</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>[21298.58, 22245.74]</t>
+          <t>[4609.88, 4546.69]</t>
         </is>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_T10.xlsx
+++ b/[3] Test Input/RESULTS_T10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -523,45 +513,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[2, 2, 2]</t>
+          <t>[32, 32, 32]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[32, 32, 32]</t>
+          <t>[30, 25, 26]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[30, 30, 30]</t>
+          <t>[29.87442737373531, 25.60862616685955, 26.44756933839941]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[30, 25, 26]</t>
+          <t>[29.242867829720627, 23.700096954044582, 26.44756933839941]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[29.87442737373531, 25.60862616685955, 26.44756933839941]</t>
+          <t>[8.71, 7.36, 7.14]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[29.242867829720627, 23.700096954044582, 26.44756933839941]</t>
+          <t>[20.31, 13.58, 9.9]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>[8.71, 7.36, 7.14]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[20.31, 13.58, 9.9]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>[680.77, 806.07, 540.98]</t>
         </is>
@@ -590,45 +570,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[25]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[24.66990551005223]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[25]</t>
+          <t>[23.913116520513544]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[24.66990551005223]</t>
+          <t>[8.39]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[23.913116520513544]</t>
+          <t>[48.67]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>[8.39]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[48.67]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>[1527.07]</t>
         </is>
@@ -657,7 +627,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -667,35 +637,25 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[29.844464368711783]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[28.37739611343147]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[29.844464368711783]</t>
+          <t>[9.88]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[28.37739611343147]</t>
+          <t>[25.57]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>[9.88]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[25.57]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>[1022.91]</t>
         </is>
@@ -724,45 +684,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[27.982281722458243]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[31]</t>
+          <t>[27.982281722458243]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[27.982281722458243]</t>
+          <t>[10.69]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[27.982281722458243]</t>
+          <t>[45.06]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>[10.69]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[45.06]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>[1560.3]</t>
         </is>
@@ -791,45 +741,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[27.079589391520194]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[26.312669613381964]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[27.079589391520194]</t>
+          <t>[8.05]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[26.312669613381964]</t>
+          <t>[28.9]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>[8.05]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[28.9]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>[900.88]</t>
         </is>
@@ -858,45 +798,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[27.116365804110952]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[25.4734130578746]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[27.116365804110952]</t>
+          <t>[9.71]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[25.4734130578746]</t>
+          <t>[27.28]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t>[9.71]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[27.28]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>[998.43]</t>
         </is>
@@ -925,45 +855,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 32]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[18, 32]</t>
+          <t>[34, 26]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[16, 30]</t>
+          <t>[33.520730051146316, 26.27535292468853]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[34, 26]</t>
+          <t>[27.099975350452205, 23.44410559691278]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[33.520730051146316, 26.27535292468853]</t>
+          <t>[11.39, 7.75]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[27.099975350452205, 23.44410559691278]</t>
+          <t>[40.12, 24.93]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>[11.39, 7.75]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[40.12, 24.93]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>[1680.73, 903.45]</t>
         </is>
@@ -992,45 +912,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[66]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[61.28108273875971]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[66]</t>
+          <t>[56.484986570908]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[61.28108273875971]</t>
+          <t>[23.94]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[56.484986570908]</t>
+          <t>[88.04]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>[23.94]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[88.04]</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
         <is>
           <t>[4554.62]</t>
         </is>
@@ -1059,45 +969,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[62, 56]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[16, 16]</t>
+          <t>[61.014791907771794, 52.10287666253136]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[62, 56]</t>
+          <t>[50.120604862225946, 45.54091087785364]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[61.014791907771794, 52.10287666253136]</t>
+          <t>[20.64, 19.98]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[50.120604862225946, 45.54091087785364]</t>
+          <t>[43.62, 57.68]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>[20.64, 19.98]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[43.62, 57.68]</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>[3078.16, 3302.36]</t>
         </is>
@@ -1126,45 +1026,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[79.73374110489735]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[83]</t>
+          <t>[65.4792974652836]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[79.73374110489735]</t>
+          <t>[27.95]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[65.4792974652836]</t>
+          <t>[63.85]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>[27.95]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[63.85]</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
         <is>
           <t>[4441.71]</t>
         </is>
@@ -1193,45 +1083,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[55.897262412082185]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[58]</t>
+          <t>[54.82421742710823]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[55.897262412082185]</t>
+          <t>[20.2]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[54.82421742710823]</t>
+          <t>[43.22]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>[20.2]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[43.22]</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
         <is>
           <t>[2962.44]</t>
         </is>
@@ -1260,45 +1140,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[94]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[86.04888669652568]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[94]</t>
+          <t>[85.9817676332346]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[86.04888669652568]</t>
+          <t>[33.76]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[85.9817676332346]</t>
+          <t>[68.17]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>[33.76]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[68.17]</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
         <is>
           <t>[6069.61]</t>
         </is>
@@ -1327,45 +1197,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[66]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[66.49893677870003]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[66]</t>
+          <t>[66.49893677870003]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[66.49893677870003]</t>
+          <t>[22.55]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[66.49893677870003]</t>
+          <t>[36.83]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>[22.55]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[36.83]</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
         <is>
           <t>[2333.51]</t>
         </is>
@@ -1394,45 +1254,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[79, 78]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[16, 16]</t>
+          <t>[75.80207412594307, 73.32527646431451]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[79, 78]</t>
+          <t>[62.37717795240823, 71.93501359940049]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[75.80207412594307, 73.32527646431451]</t>
+          <t>[24.42, 25.61]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[62.37717795240823, 71.93501359940049]</t>
+          <t>[47.76, 53.68]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
-        <is>
-          <t>[24.42, 25.61]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>[47.76, 53.68]</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
         <is>
           <t>[3760.41, 3979.86]</t>
         </is>
@@ -1461,45 +1311,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[76]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[74.49122293726249]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[76]</t>
+          <t>[74.49122293726249]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[74.49122293726249]</t>
+          <t>[23.41]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[74.49122293726249]</t>
+          <t>[20.02]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>[23.41]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[20.02]</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
         <is>
           <t>[2279.12]</t>
         </is>
@@ -1528,45 +1368,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[68]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[61.72032565738297]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[68]</t>
+          <t>[54.59631570805864]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[61.72032565738297]</t>
+          <t>[22.0]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[54.59631570805864]</t>
+          <t>[52.39]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
-        <is>
-          <t>[22.0]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>[52.39]</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
         <is>
           <t>[3149.63]</t>
         </is>
@@ -1595,45 +1425,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[40]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[39.474385719262024]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[40]</t>
+          <t>[33.58541036377354]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[39.474385719262024]</t>
+          <t>[12.75]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[33.58541036377354]</t>
+          <t>[26.9]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t>[12.75]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>[26.9]</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
         <is>
           <t>[1285.94]</t>
         </is>
@@ -1662,45 +1482,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[54]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[46.60838020806955]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[54]</t>
+          <t>[45.50548823384586]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[46.60838020806955]</t>
+          <t>[16.8]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[45.50548823384586]</t>
+          <t>[42.67]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
-        <is>
-          <t>[16.8]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[42.67]</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
         <is>
           <t>[2527.21]</t>
         </is>
@@ -1729,45 +1539,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[45]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[41.45321952802237]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[45]</t>
+          <t>[38.08416943505104]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[41.45321952802237]</t>
+          <t>[16.31]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[38.08416943505104]</t>
+          <t>[76.73]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
-        <is>
-          <t>[16.31]</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>[76.73]</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
         <is>
           <t>[3020.08]</t>
         </is>
@@ -1796,45 +1596,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[65]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[60.547260812175665]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[65]</t>
+          <t>[53.716632429886346]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[60.547260812175665]</t>
+          <t>[22.47]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[53.716632429886346]</t>
+          <t>[55.65]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
-        <is>
-          <t>[22.47]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[55.65]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
         <is>
           <t>[3430.23]</t>
         </is>
@@ -1863,45 +1653,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[45]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[43.707815839304104]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[45]</t>
+          <t>[39.487026775675595]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[43.707815839304104]</t>
+          <t>[14.61]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[39.487026775675595]</t>
+          <t>[48.17]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
-        <is>
-          <t>[14.61]</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>[48.17]</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
         <is>
           <t>[2048.13]</t>
         </is>
@@ -1930,45 +1710,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[72, 74]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[16, 16]</t>
+          <t>[67.37177565651773, 69.63255625215997]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[72, 74]</t>
+          <t>[59.399762835604356, 60.20628073415235]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[67.37177565651773, 69.63255625215997]</t>
+          <t>[24.72, 26.41]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[59.399762835604356, 60.20628073415235]</t>
+          <t>[63.98, 59.52]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>[24.72, 26.41]</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>[63.98, 59.52]</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
         <is>
           <t>[4143.48, 4151.28]</t>
         </is>
@@ -1997,45 +1767,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[38.804502707388664]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[39]</t>
+          <t>[38.804502707388664]</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[38.804502707388664]</t>
+          <t>[12.6]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[38.804502707388664]</t>
+          <t>[41.29]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
-        <is>
-          <t>[12.6]</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>[41.29]</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
         <is>
           <t>[1892.19]</t>
         </is>
@@ -2064,45 +1824,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[16, 32]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[16, 32]</t>
+          <t>[29, 27]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[14, 30]</t>
+          <t>[27.16282467254637, 27.124467983765648]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[29, 27]</t>
+          <t>[27.16282467254637, 23.245834758269005]</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[27.16282467254637, 27.124467983765648]</t>
+          <t>[9.26, 8.77]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[27.16282467254637, 23.245834758269005]</t>
+          <t>[45.94, 31.51]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
-        <is>
-          <t>[9.26, 8.77]</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>[45.94, 31.51]</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
         <is>
           <t>[1419.64, 965.08]</t>
         </is>
@@ -2131,45 +1881,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[37.60947004445926]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[37]</t>
+          <t>[37.60947004445926]</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[37.60947004445926]</t>
+          <t>[11.81]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[37.60947004445926]</t>
+          <t>[30.5]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
-        <is>
-          <t>[11.81]</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>[30.5]</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
         <is>
           <t>[1210.37]</t>
         </is>
@@ -2198,45 +1938,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[26.269711581783056]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[25.75981246323574]</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[26.269711581783056]</t>
+          <t>[9.09]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[25.75981246323574]</t>
+          <t>[31.29]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
-        <is>
-          <t>[9.09]</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>[31.29]</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
         <is>
           <t>[1095.61]</t>
         </is>
@@ -2265,45 +1995,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[41]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[39.88071382188507]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[41]</t>
+          <t>[38.94978139638465]</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[39.88071382188507]</t>
+          <t>[12.89]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[38.94978139638465]</t>
+          <t>[29.12]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
-        <is>
-          <t>[12.89]</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>[29.12]</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
         <is>
           <t>[1197.2]</t>
         </is>
@@ -2332,45 +2052,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[33]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[32.62561649087784]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[31.71671240905515]</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[32.62561649087784]</t>
+          <t>[10.33]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[31.71671240905515]</t>
+          <t>[31.01]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
-        <is>
-          <t>[10.33]</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>[31.01]</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
         <is>
           <t>[1107.96]</t>
         </is>
@@ -2399,45 +2109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[27]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[25.412391993261267]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[23.1067866318623]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[25.412391993261267]</t>
+          <t>[8.99]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[23.1067866318623]</t>
+          <t>[26.98]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
-        <is>
-          <t>[8.99]</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>[26.98]</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
         <is>
           <t>[1088.55]</t>
         </is>
@@ -2466,45 +2166,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[27.922221811084167]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[27.922221811084167]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[27.922221811084167]</t>
+          <t>[9.68]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[27.922221811084167]</t>
+          <t>[37.35]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
-        <is>
-          <t>[9.68]</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>[37.35]</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
         <is>
           <t>[1364.07]</t>
         </is>
@@ -2533,45 +2223,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[26]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[24.94767686517443]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[20.705367370292315]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>[24.94767686517443]</t>
+          <t>[9.11]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[20.705367370292315]</t>
+          <t>[31.39]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
-        <is>
-          <t>[9.11]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>[31.39]</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
         <is>
           <t>[1034.56]</t>
         </is>
@@ -2600,45 +2280,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[29.44430377451019]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[31]</t>
+          <t>[26.78382010850035]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>[29.44430377451019]</t>
+          <t>[10.92]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[26.78382010850035]</t>
+          <t>[57.75]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
-        <is>
-          <t>[10.92]</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>[57.75]</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
         <is>
           <t>[1817.25]</t>
         </is>
@@ -2667,45 +2337,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[17.6058226484109]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[16.033730095248536]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>[17.6058226484109]</t>
+          <t>[6.25]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[16.033730095248536]</t>
+          <t>[24.48]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
-        <is>
-          <t>[6.25]</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>[24.48]</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
         <is>
           <t>[680.63]</t>
         </is>
@@ -2734,45 +2394,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[27.747482274079154]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[23.349752124205402]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>[27.747482274079154]</t>
+          <t>[9.87]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[23.349752124205402]</t>
+          <t>[39.85]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
-        <is>
-          <t>[9.87]</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>[39.85]</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
         <is>
           <t>[1382.74]</t>
         </is>
@@ -2801,45 +2451,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[36]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[36.655358358100585]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[36]</t>
+          <t>[36.03116282464502]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>[36.655358358100585]</t>
+          <t>[12.22]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[36.03116282464502]</t>
+          <t>[37.99]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
-        <is>
-          <t>[12.22]</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>[37.99]</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
         <is>
           <t>[1396.3]</t>
         </is>
@@ -2868,45 +2508,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[33.88609227146581]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[34]</t>
+          <t>[33.88609227146581]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>[33.88609227146581]</t>
+          <t>[9.78]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[33.88609227146581]</t>
+          <t>[15.78]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
-        <is>
-          <t>[9.78]</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>[15.78]</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
         <is>
           <t>[937.85]</t>
         </is>
@@ -2935,45 +2565,35 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[30.859845750899]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[31]</t>
+          <t>[25.247048714115387]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>[30.859845750899]</t>
+          <t>[10.24]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[25.247048714115387]</t>
+          <t>[41.83]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
-        <is>
-          <t>[10.24]</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>[41.83]</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
         <is>
           <t>[1583.9]</t>
         </is>
@@ -3002,7 +2622,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3012,35 +2632,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[31.08026951869021]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[30.225517364047413]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>[31.08026951869021]</t>
+          <t>[11.34]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[30.225517364047413]</t>
+          <t>[41.58]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
-        <is>
-          <t>[11.34]</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>[41.58]</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
         <is>
           <t>[1332.24]</t>
         </is>
@@ -3069,45 +2679,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[79]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[77.89964286114466]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[79]</t>
+          <t>[69.88378466261996]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>[77.89964286114466]</t>
+          <t>[27.95]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[69.88378466261996]</t>
+          <t>[53.02]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
-        <is>
-          <t>[27.95]</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>[53.02]</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
         <is>
           <t>[4564.14]</t>
         </is>
@@ -3136,45 +2736,35 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[99.31498765662765]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[99]</t>
+          <t>[95.37481608003014]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>[99.31498765662765]</t>
+          <t>[30.35]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[95.37481608003014]</t>
+          <t>[50.18]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
-        <is>
-          <t>[30.35]</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>[50.18]</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
         <is>
           <t>[4494.74]</t>
         </is>
@@ -3203,45 +2793,35 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[94, 89]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[16, 16]</t>
+          <t>[92.25724113066084, 86.86735922917967]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[94, 89]</t>
+          <t>[92.25724113066084, 86.86735922917967]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>[92.25724113066084, 86.86735922917967]</t>
+          <t>[29.61, 27.38]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[92.25724113066084, 86.86735922917967]</t>
+          <t>[46.3, 41.53]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
-        <is>
-          <t>[29.61, 27.38]</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>[46.3, 41.53]</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
         <is>
           <t>[4557.16, 4262.81]</t>
         </is>
@@ -3270,45 +2850,35 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[57.012798870862994]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[58]</t>
+          <t>[54.53279241896345]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>[57.012798870862994]</t>
+          <t>[19.62]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[54.53279241896345]</t>
+          <t>[30.04]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
-        <is>
-          <t>[19.62]</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>[30.04]</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
         <is>
           <t>[2359.18]</t>
         </is>
@@ -3337,45 +2907,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[34.692940575509]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[37]</t>
+          <t>[29.04371331668617]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>[34.692940575509]</t>
+          <t>[14.05]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[29.04371331668617]</t>
+          <t>[43.38]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
-        <is>
-          <t>[14.05]</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>[43.38]</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
         <is>
           <t>[1834.96]</t>
         </is>
@@ -3404,45 +2964,35 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[36]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[36]</t>
+          <t>[22]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[34]</t>
+          <t>[20.3803591604263]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[22]</t>
+          <t>[17.442413228205364]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>[20.3803591604263]</t>
+          <t>[6.59]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[17.442413228205364]</t>
+          <t>[29.5]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
-        <is>
-          <t>[6.59]</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>[29.5]</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
         <is>
           <t>[1118.38]</t>
         </is>
@@ -3471,45 +3021,35 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[45]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[44.69992479110479]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[45]</t>
+          <t>[41.65069457049674]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>[44.69992479110479]</t>
+          <t>[16.27]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[41.65069457049674]</t>
+          <t>[27.13]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
-        <is>
-          <t>[16.27]</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>[27.13]</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
         <is>
           <t>[1754.07]</t>
         </is>
@@ -3538,45 +3078,35 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[47]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[47.42702990086497]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[47]</t>
+          <t>[40.54913382958789]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>[47.42702990086497]</t>
+          <t>[15.9]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[40.54913382958789]</t>
+          <t>[32.27]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
-        <is>
-          <t>[15.9]</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>[32.27]</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
         <is>
           <t>[1849.96]</t>
         </is>
@@ -3605,45 +3135,35 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[32, 32]</t>
+          <t>[28, 27]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[27.665696267723675, 24.929895725516058]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[28, 27]</t>
+          <t>[19.837290080684998, 24.32846468472714]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>[27.665696267723675, 24.929895725516058]</t>
+          <t>[9.49, 8.21]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[19.837290080684998, 24.32846468472714]</t>
+          <t>[26.61, 19.26]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
-        <is>
-          <t>[9.49, 8.21]</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>[26.61, 19.26]</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
         <is>
           <t>[1100.82, 885.8]</t>
         </is>
@@ -3672,45 +3192,35 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[13.294327254862067]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[13.157085315612026]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>[13.294327254862067]</t>
+          <t>[3.74]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[13.157085315612026]</t>
+          <t>[6.65]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
-        <is>
-          <t>[3.74]</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>[6.65]</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
         <is>
           <t>[814.05]</t>
         </is>
@@ -3739,45 +3249,35 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[20, 32]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[20, 32]</t>
+          <t>[34, 39]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[18, 30]</t>
+          <t>[34.33006961677288, 36.88997227677974]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[34, 39]</t>
+          <t>[33.577811206248086, 34.060286830974796]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>[34.33006961677288, 36.88997227677974]</t>
+          <t>[11.61, 11.21]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[33.577811206248086, 34.060286830974796]</t>
+          <t>[33.75, 23.4]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
-        <is>
-          <t>[11.61, 11.21]</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>[33.75, 23.4]</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
         <is>
           <t>[1672.63, 1305.56]</t>
         </is>
@@ -3806,45 +3306,35 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[32, 34]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[32, 34]</t>
+          <t>[41, 38]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[30, 32]</t>
+          <t>[38.954274954633355, 36.00809755285475]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[41, 38]</t>
+          <t>[31.21942038696414, 33.41285274762477]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>[38.954274954633355, 36.00809755285475]</t>
+          <t>[13.37, 11.97]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[31.21942038696414, 33.41285274762477]</t>
+          <t>[23.49, 22.9]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
-        <is>
-          <t>[13.37, 11.97]</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>[23.49, 22.9]</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
         <is>
           <t>[1490.44, 1183.58]</t>
         </is>
@@ -3873,45 +3363,35 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[126]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[119.14403986182957]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[126]</t>
+          <t>[88.5120814668456]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>[119.14403986182957]</t>
+          <t>[42.74]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[88.5120814668456]</t>
+          <t>[33.33]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
-        <is>
-          <t>[42.74]</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>[33.33]</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
         <is>
           <t>[4603.86]</t>
         </is>
@@ -3940,45 +3420,35 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[92]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[91.47126299123049]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[92]</t>
+          <t>[90.3232009521228]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>[91.47126299123049]</t>
+          <t>[32.65]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[90.3232009521228]</t>
+          <t>[44.36]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
-        <is>
-          <t>[32.65]</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>[44.36]</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
         <is>
           <t>[4986.41]</t>
         </is>
@@ -4007,45 +3477,35 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[18, 30]</t>
+          <t>[98, 176]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[16, 28]</t>
+          <t>[97.18630927863279, 165.33972879954976]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[98, 176]</t>
+          <t>[97.18630927863279, 170.95314336153376]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>[97.18630927863279, 165.33972879954976]</t>
+          <t>[34.74, 54.06]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[97.18630927863279, 170.95314336153376]</t>
+          <t>[45.38, 21.23]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
-        <is>
-          <t>[34.74, 54.06]</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>[45.38, 21.23]</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
         <is>
           <t>[5267.7, 4441.84]</t>
         </is>
@@ -4074,45 +3534,35 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[109]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[108.16125018264844]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[109]</t>
+          <t>[101.56372099132867]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>[108.16125018264844]</t>
+          <t>[35.56]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[101.56372099132867]</t>
+          <t>[41.63]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
-        <is>
-          <t>[35.56]</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>[41.63]</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
         <is>
           <t>[5127.71]</t>
         </is>
@@ -4141,45 +3591,35 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[110]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[106.25152611019725]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[110]</t>
+          <t>[99.44980825950968]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>[106.25152611019725]</t>
+          <t>[41.26]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[99.44980825950968]</t>
+          <t>[55.04]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
-        <is>
-          <t>[41.26]</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>[55.04]</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
         <is>
           <t>[6939.63]</t>
         </is>
@@ -4208,45 +3648,35 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 34]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[18, 34]</t>
+          <t>[112, 131]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[16, 32]</t>
+          <t>[108.01407922895201, 130.78763348821474]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[112, 131]</t>
+          <t>[96.49390912765926, 113.44705542254245]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>[108.01407922895201, 130.78763348821474]</t>
+          <t>[36.61, 43.01]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[96.49390912765926, 113.44705542254245]</t>
+          <t>[42.39, 31.7]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
-        <is>
-          <t>[36.61, 43.01]</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>[42.39, 31.7]</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
         <is>
           <t>[5479.91, 4318.06]</t>
         </is>
@@ -4275,45 +3705,35 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[99]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[93.25259214827778]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[99]</t>
+          <t>[79.30519547624338]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>[93.25259214827778]</t>
+          <t>[35.52]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[79.30519547624338]</t>
+          <t>[48.01]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
-        <is>
-          <t>[35.52]</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>[48.01]</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
         <is>
           <t>[5713.71]</t>
         </is>
@@ -4342,45 +3762,35 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[70]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[66.0591983786978]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[70]</t>
+          <t>[66.0591983786978]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>[66.0591983786978]</t>
+          <t>[21.61]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[66.0591983786978]</t>
+          <t>[40.29]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
-        <is>
-          <t>[21.61]</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>[40.29]</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
         <is>
           <t>[3160.41]</t>
         </is>
@@ -4409,45 +3819,35 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[34]</t>
+          <t>[59]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[59.16976230335201]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[59]</t>
+          <t>[59.16976230335201]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>[59.16976230335201]</t>
+          <t>[17.45]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[59.16976230335201]</t>
+          <t>[9.52]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
-        <is>
-          <t>[17.45]</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>[9.52]</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
         <is>
           <t>[1904.19]</t>
         </is>
@@ -4476,45 +3876,35 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[77]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[71.14222974971777]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[77]</t>
+          <t>[71.14222974971777]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>[71.14222974971777]</t>
+          <t>[23.63]</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[71.14222974971777]</t>
+          <t>[42.88]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
-        <is>
-          <t>[23.63]</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>[42.88]</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
         <is>
           <t>[3586.45]</t>
         </is>
@@ -4543,45 +3933,35 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[88]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[85.49072515085162]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[88]</t>
+          <t>[80.38290886161178]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>[85.49072515085162]</t>
+          <t>[26.28]</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[80.38290886161178]</t>
+          <t>[54.39]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
-        <is>
-          <t>[26.28]</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>[54.39]</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
         <is>
           <t>[4000.0]</t>
         </is>
@@ -4610,45 +3990,35 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[73]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[68.506495392711]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[73]</t>
+          <t>[64.14140679385784]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>[68.506495392711]</t>
+          <t>[21.75]</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[64.14140679385784]</t>
+          <t>[36.39]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
-        <is>
-          <t>[21.75]</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>[36.39]</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
         <is>
           <t>[2954.34]</t>
         </is>
@@ -4677,45 +4047,35 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[88]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[79.57000489281678]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[88]</t>
+          <t>[76.37024494227703]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>[79.57000489281678]</t>
+          <t>[27.11]</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[76.37024494227703]</t>
+          <t>[46.19]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
-        <is>
-          <t>[27.11]</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>[46.19]</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
         <is>
           <t>[4199.6]</t>
         </is>
@@ -4744,45 +4104,35 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[84]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[80.21300094189951]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[84]</t>
+          <t>[71.80208819522906]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>[80.21300094189951]</t>
+          <t>[25.88]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[71.80208819522906]</t>
+          <t>[35.34]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
-        <is>
-          <t>[25.88]</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>[35.34]</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
         <is>
           <t>[3543.97]</t>
         </is>
@@ -4811,45 +4161,35 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[2, 2, 2]</t>
+          <t>[20, 20, 18]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[20, 20, 18]</t>
+          <t>[81, 97, 72]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[18, 18, 16]</t>
+          <t>[73.50796382636688, 93.4324426631737, 69.76891916976636]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[81, 97, 72]</t>
+          <t>[69.9397241953125, 85.82637570617062, 69.76891916976636]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>[73.50796382636688, 93.4324426631737, 69.76891916976636]</t>
+          <t>[23.58, 29.34, 21.72]</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[69.9397241953125, 85.82637570617062, 69.76891916976636]</t>
+          <t>[38.63, 54.94, 33.86]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
-        <is>
-          <t>[23.58, 29.34, 21.72]</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>[38.63, 54.94, 33.86]</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
         <is>
           <t>[3165.1, 5151.58, 3139.1]</t>
         </is>
@@ -4878,45 +4218,35 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[18, 30]</t>
+          <t>[74, 59]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[16, 28]</t>
+          <t>[68.15756503469167, 54.28470884069168]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[74, 59]</t>
+          <t>[64.58641609237368, 53.12863585479943]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>[68.15756503469167, 54.28470884069168]</t>
+          <t>[24.15, 22.45]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[64.58641609237368, 53.12863585479943]</t>
+          <t>[58.06, 41.17]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
-        <is>
-          <t>[24.15, 22.45]</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>[58.06, 41.17]</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
         <is>
           <t>[3913.06, 2989.95]</t>
         </is>
@@ -4945,45 +4275,35 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[55.20957861484356]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[58]</t>
+          <t>[55.20957861484356]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>[55.20957861484356]</t>
+          <t>[21.08]</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[55.20957861484356]</t>
+          <t>[33.52]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
-        <is>
-          <t>[21.08]</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>[33.52]</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
         <is>
           <t>[2607.98]</t>
         </is>
@@ -5012,45 +4332,35 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[59]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[56.271998722071835]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[59]</t>
+          <t>[56.271998722071835]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>[56.271998722071835]</t>
+          <t>[20.41]</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[56.271998722071835]</t>
+          <t>[35.05]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
-        <is>
-          <t>[20.41]</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>[35.05]</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
         <is>
           <t>[2513.76]</t>
         </is>
@@ -5079,45 +4389,35 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[46]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[45.928779122076406]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[46]</t>
+          <t>[39.41673357903083]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>[45.928779122076406]</t>
+          <t>[13.88]</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[39.41673357903083]</t>
+          <t>[15.97]</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
-        <is>
-          <t>[13.88]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>[15.97]</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
         <is>
           <t>[1884.88]</t>
         </is>
@@ -5146,45 +4446,35 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[70]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[69.07506137381468]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[70]</t>
+          <t>[68.19823150131346]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>[69.07506137381468]</t>
+          <t>[23.35]</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[68.19823150131346]</t>
+          <t>[27.44]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
-        <is>
-          <t>[23.35]</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>[27.44]</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
         <is>
           <t>[2670.9]</t>
         </is>
@@ -5213,45 +4503,35 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[62.020959921278035]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[62]</t>
+          <t>[62.020959921278035]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>[62.020959921278035]</t>
+          <t>[22.01]</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[62.020959921278035]</t>
+          <t>[41.57]</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
-        <is>
-          <t>[22.01]</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>[41.57]</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
         <is>
           <t>[2727.98]</t>
         </is>
@@ -5280,45 +4560,35 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[44]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[44.21312536016151]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[44]</t>
+          <t>[42.76459551987627]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>[44.21312536016151]</t>
+          <t>[15.45]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[42.76459551987627]</t>
+          <t>[23.16]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
-        <is>
-          <t>[15.45]</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>[23.16]</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
         <is>
           <t>[1854.75]</t>
         </is>
@@ -5347,45 +4617,35 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[63]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[61.46320937415982]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[63]</t>
+          <t>[61.46320937415982]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>[61.46320937415982]</t>
+          <t>[21.71]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[61.46320937415982]</t>
+          <t>[34.42]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
-        <is>
-          <t>[21.71]</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>[34.42]</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
         <is>
           <t>[2076.71]</t>
         </is>
@@ -5414,45 +4674,35 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[60]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[57.23390227948497]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[60]</t>
+          <t>[57.23390227948497]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>[57.23390227948497]</t>
+          <t>[21.94]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[57.23390227948497]</t>
+          <t>[38.0]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
-        <is>
-          <t>[21.94]</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>[38.0]</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
         <is>
           <t>[2870.19]</t>
         </is>
@@ -5481,45 +4731,35 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[32, 32]</t>
+          <t>[42, 45]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[41.12823357252735, 44.45979402497909]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[42, 45]</t>
+          <t>[40.44347375302254, 43.417592702492655]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>[41.12823357252735, 44.45979402497909]</t>
+          <t>[11.88, 14.37]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[40.44347375302254, 43.417592702492655]</t>
+          <t>[16.51, 25.35]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
-        <is>
-          <t>[11.88, 14.37]</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>[16.51, 25.35]</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
         <is>
           <t>[1033.49, 1491.82]</t>
         </is>
@@ -5548,45 +4788,35 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[37.1139849496659]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[37]</t>
+          <t>[33.43828079471414]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>[37.1139849496659]</t>
+          <t>[10.41]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[33.43828079471414]</t>
+          <t>[9.87]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
-        <is>
-          <t>[10.41]</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>[9.87]</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
         <is>
           <t>[1100.22]</t>
         </is>
@@ -5615,45 +4845,35 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[53.66307321626935]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[55]</t>
+          <t>[53.2065801772237]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>[53.66307321626935]</t>
+          <t>[17.76]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[53.2065801772237]</t>
+          <t>[29.87]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
-        <is>
-          <t>[17.76]</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>[29.87]</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
         <is>
           <t>[1762.94]</t>
         </is>
@@ -5682,45 +4902,35 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[63]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[60.143588332225846]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[63]</t>
+          <t>[60.143588332225846]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>[60.143588332225846]</t>
+          <t>[21.29]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[60.143588332225846]</t>
+          <t>[25.1]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
-        <is>
-          <t>[21.29]</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>[25.1]</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
         <is>
           <t>[2588.28]</t>
         </is>
@@ -5749,45 +4959,35 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[100]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[97.35325665112374]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[100]</t>
+          <t>[78.81769772222889]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>[97.35325665112374]</t>
+          <t>[28.24]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[78.81769772222889]</t>
+          <t>[21.44]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
-        <is>
-          <t>[28.24]</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>[21.44]</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
         <is>
           <t>[2527.4]</t>
         </is>
@@ -5816,45 +5016,35 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[55.50028662687221]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[55]</t>
+          <t>[55.50028662687221]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>[55.50028662687221]</t>
+          <t>[17.27]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[55.50028662687221]</t>
+          <t>[36.42]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
-        <is>
-          <t>[17.27]</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>[36.42]</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
         <is>
           <t>[2051.4]</t>
         </is>
@@ -5883,45 +5073,35 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[61.589912709461416]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[62]</t>
+          <t>[61.589912709461416]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>[61.589912709461416]</t>
+          <t>[18.71]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[61.589912709461416]</t>
+          <t>[31.05]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
-        <is>
-          <t>[18.71]</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>[31.05]</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
         <is>
           <t>[2480.36]</t>
         </is>
@@ -5950,45 +5130,35 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[61]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[60.401295906638765]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[61]</t>
+          <t>[57.35624313697035]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>[60.401295906638765]</t>
+          <t>[20.49]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[57.35624313697035]</t>
+          <t>[39.87]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
-        <is>
-          <t>[20.49]</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>[39.87]</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
         <is>
           <t>[3092.92]</t>
         </is>
@@ -6017,45 +5187,35 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[90]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[86.78742873443352]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[90]</t>
+          <t>[75.17787924541061]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>[86.78742873443352]</t>
+          <t>[29.94]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[75.17787924541061]</t>
+          <t>[32.79]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
-        <is>
-          <t>[29.94]</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>[32.79]</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
         <is>
           <t>[3003.01]</t>
         </is>
@@ -6084,45 +5244,35 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[117]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[113.75616327438566]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[117]</t>
+          <t>[98.80007362198285]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>[113.75616327438566]</t>
+          <t>[41.09]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[98.80007362198285]</t>
+          <t>[54.86]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
-        <is>
-          <t>[41.09]</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>[54.86]</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
         <is>
           <t>[6457.9]</t>
         </is>
@@ -6151,45 +5301,35 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[147]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[137.50889554959002]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[147]</t>
+          <t>[115.67515128965667]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>[137.50889554959002]</t>
+          <t>[50.56]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>[115.67515128965667]</t>
+          <t>[41.7]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
-        <is>
-          <t>[50.56]</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>[41.7]</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
         <is>
           <t>[7528.27]</t>
         </is>
@@ -6218,45 +5358,35 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[183]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[179.6598565617463]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[183]</t>
+          <t>[169.88548358830624]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>[179.6598565617463]</t>
+          <t>[58.81]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>[169.88548358830624]</t>
+          <t>[36.36]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
-        <is>
-          <t>[58.81]</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>[36.36]</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
         <is>
           <t>[7754.48]</t>
         </is>
@@ -6285,45 +5415,35 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[188]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[186.8821991819847]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[188]</t>
+          <t>[174.57197885136426]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>[186.8821991819847]</t>
+          <t>[59.93]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>[174.57197885136426]</t>
+          <t>[22.44]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
-        <is>
-          <t>[59.93]</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>[22.44]</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
         <is>
           <t>[4690.96]</t>
         </is>
@@ -6352,45 +5472,35 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[122]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[117.68030095711552]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[122]</t>
+          <t>[111.11383835257956]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>[117.68030095711552]</t>
+          <t>[44.5]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[111.11383835257956]</t>
+          <t>[44.93]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
-        <is>
-          <t>[44.5]</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>[44.93]</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
         <is>
           <t>[6199.74]</t>
         </is>
@@ -6419,45 +5529,35 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 32]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[18, 32]</t>
+          <t>[114, 160]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[16, 30]</t>
+          <t>[107.13085047442584, 155.3787294443875]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[114, 160]</t>
+          <t>[107.13085047442584, 108.37796571578853]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>[107.13085047442584, 155.3787294443875]</t>
+          <t>[37.13, 50.26]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>[107.13085047442584, 108.37796571578853]</t>
+          <t>[49.81, 29.87]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
-        <is>
-          <t>[37.13, 50.26]</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>[49.81, 29.87]</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
         <is>
           <t>[5614.22, 5030.37]</t>
         </is>
@@ -6486,45 +5586,35 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[129]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[128.61281572791498]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[129]</t>
+          <t>[111.84684750185242]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>[128.61281572791498]</t>
+          <t>[43.99]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[111.84684750185242]</t>
+          <t>[38.97]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
-        <is>
-          <t>[43.99]</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>[38.97]</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
         <is>
           <t>[6032.05]</t>
         </is>
@@ -6553,45 +5643,35 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 30]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[18, 30]</t>
+          <t>[44, 35]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[16, 28]</t>
+          <t>[41.37367640996417, 34.94050742708654]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>[44, 35]</t>
+          <t>[41.37367640996417, 34.42876878306384]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>[41.37367640996417, 34.94050742708654]</t>
+          <t>[14.41, 10.15]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>[41.37367640996417, 34.42876878306384]</t>
+          <t>[39.38, 13.98]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
-        <is>
-          <t>[14.41, 10.15]</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>[39.38, 13.98]</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
         <is>
           <t>[1928.08, 868.7]</t>
         </is>
@@ -6620,7 +5700,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6630,35 +5710,25 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[32.40894577058911]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[27.872272450115613]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>[32.40894577058911]</t>
+          <t>[9.64]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[27.872272450115613]</t>
+          <t>[16.26]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
-        <is>
-          <t>[9.64]</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>[16.26]</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
         <is>
           <t>[872.84]</t>
         </is>
@@ -6687,45 +5757,35 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[47]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[45.11432843779984]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>[47]</t>
+          <t>[45.01365726001295]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>[45.11432843779984]</t>
+          <t>[16.3]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>[45.01365726001295]</t>
+          <t>[50.88]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
-        <is>
-          <t>[16.3]</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>[50.88]</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
         <is>
           <t>[2593.78]</t>
         </is>
@@ -6754,45 +5814,35 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[39.38547301865003]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>[39]</t>
+          <t>[39.38547301865003]</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>[39.38547301865003]</t>
+          <t>[12.47]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[39.38547301865003]</t>
+          <t>[27.19]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
-        <is>
-          <t>[12.47]</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>[27.19]</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
         <is>
           <t>[1398.13]</t>
         </is>
@@ -6821,45 +5871,35 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[40]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[36.79391028851607]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[40]</t>
+          <t>[34.1949615403443]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>[36.79391028851607]</t>
+          <t>[12.83]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>[34.1949615403443]</t>
+          <t>[25.02]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
-        <is>
-          <t>[12.83]</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>[25.02]</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
         <is>
           <t>[1276.1]</t>
         </is>
@@ -6888,45 +5928,35 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[32, 32]</t>
+          <t>[46, 41]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[46.35558293624084, 38.00640630973891]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[46, 41]</t>
+          <t>[46.35558293624084, 38.00640630973891]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>[46.35558293624084, 38.00640630973891]</t>
+          <t>[14.43, 12.81]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>[46.35558293624084, 38.00640630973891]</t>
+          <t>[22.77, 30.23]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
-        <is>
-          <t>[14.43, 12.81]</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>[22.77, 30.23]</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
         <is>
           <t>[1378.86, 1319.6]</t>
         </is>
@@ -6955,45 +5985,35 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[16, 18]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[16, 18]</t>
+          <t>[103, 90]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[14, 16]</t>
+          <t>[98.92723214829337, 88.13654938211133]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>[103, 90]</t>
+          <t>[82.96938100687095, 76.71898102625806]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>[98.92723214829337, 88.13654938211133]</t>
+          <t>[32.87, 30.18]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>[82.96938100687095, 76.71898102625806]</t>
+          <t>[54.93, 37.72]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
-        <is>
-          <t>[32.87, 30.18]</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>[54.93, 37.72]</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
         <is>
           <t>[4914.13, 3908.41]</t>
         </is>
@@ -7022,45 +6042,35 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[34]</t>
+          <t>[113]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[107.97221239746013]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>[113]</t>
+          <t>[94.73032515168934]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>[107.97221239746013]</t>
+          <t>[38.79]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>[94.73032515168934]</t>
+          <t>[28.87]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
-        <is>
-          <t>[38.79]</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>[28.87]</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
         <is>
           <t>[3553.39]</t>
         </is>
@@ -7089,45 +6099,35 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[79.54819881530756]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>[83]</t>
+          <t>[79.49945389433788]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>[79.54819881530756]</t>
+          <t>[30.62]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>[79.49945389433788]</t>
+          <t>[69.25]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
-        <is>
-          <t>[30.62]</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>[69.25]</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
         <is>
           <t>[5177.13]</t>
         </is>
@@ -7156,45 +6156,35 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[87]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[81.12670331244388]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[87]</t>
+          <t>[68.19635100725603]</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>[81.12670331244388]</t>
+          <t>[29.4]</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>[68.19635100725603]</t>
+          <t>[44.08]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
-        <is>
-          <t>[29.4]</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>[44.08]</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
         <is>
           <t>[4181.98]</t>
         </is>
@@ -7223,45 +6213,35 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[93, 71]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[16, 16]</t>
+          <t>[91.98831993895153, 71.07041523311636]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>[93, 71]</t>
+          <t>[91.98831993895153, 66.50627117219223]</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>[91.98831993895153, 71.07041523311636]</t>
+          <t>[29.96, 25.11]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>[91.98831993895153, 66.50627117219223]</t>
+          <t>[46.88, 34.71]</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
-        <is>
-          <t>[29.96, 25.11]</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>[46.88, 34.71]</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
         <is>
           <t>[4268.85, 3284.76]</t>
         </is>
@@ -7290,45 +6270,35 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[104]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[102.08160298929063]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>[104]</t>
+          <t>[81.96334539433394]</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>[102.08160298929063]</t>
+          <t>[33.59]</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>[81.96334539433394]</t>
+          <t>[40.3]</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
-        <is>
-          <t>[33.59]</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>[40.3]</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
         <is>
           <t>[4492.06]</t>
         </is>
@@ -7357,45 +6327,35 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[88]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[85.00316731552465]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>[88]</t>
+          <t>[67.37174832760881]</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>[85.00316731552465]</t>
+          <t>[29.92]</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>[67.37174832760881]</t>
+          <t>[40.1]</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
-        <is>
-          <t>[29.92]</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>[40.1]</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
         <is>
           <t>[4140.32]</t>
         </is>
@@ -7424,45 +6384,35 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[96]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[92.71265036536886]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>[96]</t>
+          <t>[77.32101493747103]</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>[92.71265036536886]</t>
+          <t>[31.72]</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>[77.32101493747103]</t>
+          <t>[45.28]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
-        <is>
-          <t>[31.72]</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>[45.28]</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
         <is>
           <t>[4157.56]</t>
         </is>
@@ -7491,45 +6441,35 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[72]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[72.13251683196465]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>[72]</t>
+          <t>[55.56145069844642]</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>[72.13251683196465]</t>
+          <t>[22.81]</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>[55.56145069844642]</t>
+          <t>[34.59]</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
-        <is>
-          <t>[22.81]</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>[34.59]</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
         <is>
           <t>[2189.33]</t>
         </is>
@@ -7558,45 +6498,35 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[78]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[71.60213370846034]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>[78]</t>
+          <t>[68.97138176414914]</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>[71.60213370846034]</t>
+          <t>[25.18]</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>[68.97138176414914]</t>
+          <t>[29.14]</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
-        <is>
-          <t>[25.18]</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>[29.14]</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
         <is>
           <t>[2541.2]</t>
         </is>
@@ -7625,45 +6555,35 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[97]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[92.72406248262513]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>[97]</t>
+          <t>[77.9030693144562]</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>[92.72406248262513]</t>
+          <t>[30.01]</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>[77.9030693144562]</t>
+          <t>[32.6]</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
-        <is>
-          <t>[30.01]</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>[32.6]</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
         <is>
           <t>[3923.92]</t>
         </is>
@@ -7692,45 +6612,35 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[83]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[82.62724291752032]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>[83]</t>
+          <t>[80.94017739825928]</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>[82.62724291752032]</t>
+          <t>[26.94]</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>[80.94017739825928]</t>
+          <t>[23.7]</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
-        <is>
-          <t>[26.94]</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>[23.7]</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
         <is>
           <t>[2594.65]</t>
         </is>
@@ -7759,45 +6669,35 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[66]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[63.010439250963145]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>[66]</t>
+          <t>[60.316799699776276]</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>[63.010439250963145]</t>
+          <t>[20.49]</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>[60.316799699776276]</t>
+          <t>[29.26]</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
-        <is>
-          <t>[20.49]</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>[29.26]</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
         <is>
           <t>[1838.77]</t>
         </is>
@@ -7826,45 +6726,35 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[93]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[90.40870747446812]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>[93]</t>
+          <t>[90.40870747446812]</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>[90.40870747446812]</t>
+          <t>[29.77]</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>[90.40870747446812]</t>
+          <t>[29.74]</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
-        <is>
-          <t>[29.77]</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>[29.74]</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
         <is>
           <t>[3688.0]</t>
         </is>
@@ -7893,45 +6783,35 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[60]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[58.85598520954735]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>[60]</t>
+          <t>[56.66457548769969]</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>[58.85598520954735]</t>
+          <t>[21.44]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>[56.66457548769969]</t>
+          <t>[46.63]</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
-        <is>
-          <t>[21.44]</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>[46.63]</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
         <is>
           <t>[2999.25]</t>
         </is>
@@ -7960,45 +6840,35 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[34]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[34]</t>
+          <t>[67]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[66.79337937128457]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>[67]</t>
+          <t>[65.48719276425226]</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>[66.79337937128457]</t>
+          <t>[21.73]</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>[65.48719276425226]</t>
+          <t>[14.18]</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
-        <is>
-          <t>[21.73]</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>[14.18]</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
         <is>
           <t>[1776.36]</t>
         </is>
@@ -8027,45 +6897,35 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[20]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[78]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[70.82348730591765]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>[78]</t>
+          <t>[69.0580351457613]</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>[70.82348730591765]</t>
+          <t>[24.53]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>[69.0580351457613]</t>
+          <t>[33.61]</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
-        <is>
-          <t>[24.53]</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>[33.61]</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
         <is>
           <t>[3035.4]</t>
         </is>
@@ -8094,45 +6954,35 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[61.87883273129375]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>[62]</t>
+          <t>[59.68401202963443]</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>[61.87883273129375]</t>
+          <t>[19.51]</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>[59.68401202963443]</t>
+          <t>[25.94]</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
-        <is>
-          <t>[19.51]</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>[25.94]</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
         <is>
           <t>[1764.17]</t>
         </is>
@@ -8161,45 +7011,35 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[55.9885468929738]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[55.9885468929738]</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>[55.9885468929738]</t>
+          <t>[18.59]</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>[55.9885468929738]</t>
+          <t>[21.27]</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
-        <is>
-          <t>[18.59]</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>[21.27]</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
         <is>
           <t>[1635.4]</t>
         </is>
@@ -8228,45 +7068,35 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[32, 30]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[32, 30]</t>
+          <t>[50, 56]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[30, 28]</t>
+          <t>[49.981096910856465, 56.17176043761566]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>[50, 56]</t>
+          <t>[49.73208016186208, 56.17176043761566]</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>[49.981096910856465, 56.17176043761566]</t>
+          <t>[16.88, 17.04]</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>[49.73208016186208, 56.17176043761566]</t>
+          <t>[32.53, 17.85]</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
-        <is>
-          <t>[16.88, 17.04]</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>[32.53, 17.85]</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
         <is>
           <t>[1705.99, 1529.01]</t>
         </is>
@@ -8295,45 +7125,35 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[47]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[26]</t>
+          <t>[44.57072617497598]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>[47]</t>
+          <t>[44.57072617497598]</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>[44.57072617497598]</t>
+          <t>[14.84]</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>[44.57072617497598]</t>
+          <t>[40.05]</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
-        <is>
-          <t>[14.84]</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>[40.05]</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
         <is>
           <t>[1753.86]</t>
         </is>
@@ -8362,45 +7182,35 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[58]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[57.7823850395153]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>[58]</t>
+          <t>[57.7823850395153]</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>[57.7823850395153]</t>
+          <t>[17.1]</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>[57.7823850395153]</t>
+          <t>[19.14]</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
-        <is>
-          <t>[17.1]</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>[19.14]</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
         <is>
           <t>[1304.07]</t>
         </is>
@@ -8429,45 +7239,35 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[38]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[36.76858640617366]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>[38]</t>
+          <t>[34.78235881595512]</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>[36.76858640617366]</t>
+          <t>[12.68]</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>[34.78235881595512]</t>
+          <t>[20.69]</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
-        <is>
-          <t>[12.68]</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>[20.69]</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
         <is>
           <t>[1134.02]</t>
         </is>
@@ -8496,45 +7296,35 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[72]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[69.06809975461748]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>[72]</t>
+          <t>[69.06809975461748]</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>[69.06809975461748]</t>
+          <t>[26.48]</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>[69.06809975461748]</t>
+          <t>[73.99]</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
-        <is>
-          <t>[26.48]</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>[73.99]</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
         <is>
           <t>[4857.97]</t>
         </is>
@@ -8563,45 +7353,35 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[62]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[60.894247292336516]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>[62]</t>
+          <t>[55.91152654001202]</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>[60.894247292336516]</t>
+          <t>[18.84]</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>[55.91152654001202]</t>
+          <t>[20.08]</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
-        <is>
-          <t>[18.84]</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>[20.08]</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
         <is>
           <t>[1644.6]</t>
         </is>
@@ -8630,45 +7410,35 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[52]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[51.34405652741073]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[48.31325990394013]</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>[51.34405652741073]</t>
+          <t>[15.76]</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>[48.31325990394013]</t>
+          <t>[18.73]</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
-        <is>
-          <t>[15.76]</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>[18.73]</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
         <is>
           <t>[1374.58]</t>
         </is>
@@ -8697,45 +7467,35 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[65]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[64.08209154372676]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>[65]</t>
+          <t>[64.08209154372676]</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>[64.08209154372676]</t>
+          <t>[23.21]</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>[64.08209154372676]</t>
+          <t>[51.98]</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
-        <is>
-          <t>[23.21]</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>[51.98]</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
         <is>
           <t>[3412.2]</t>
         </is>
@@ -8764,45 +7524,35 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[37]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[36.87715457384766]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>[37]</t>
+          <t>[32.47671713724356]</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>[36.87715457384766]</t>
+          <t>[11.18]</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>[32.47671713724356]</t>
+          <t>[13.63]</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
-        <is>
-          <t>[11.18]</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>[13.63]</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
         <is>
           <t>[955.5]</t>
         </is>
@@ -8831,45 +7581,35 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[28, 32]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[28, 32]</t>
+          <t>[48, 48]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[26, 30]</t>
+          <t>[45.69136263944198, 47.04655218193066]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>[48, 48]</t>
+          <t>[44.482477384299116, 46.38607699622134]</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>[45.69136263944198, 47.04655218193066]</t>
+          <t>[13.89, 15.75]</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>[44.482477384299116, 46.38607699622134]</t>
+          <t>[16.9, 25.21]</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
-        <is>
-          <t>[13.89, 15.75]</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>[16.9, 25.21]</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
         <is>
           <t>[1273.42, 1478.75]</t>
         </is>
@@ -8898,45 +7638,35 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[52]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[52.23470749059706]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[52.23470749059706]</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>[52.23470749059706]</t>
+          <t>[17.03]</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>[52.23470749059706]</t>
+          <t>[31.02]</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
-        <is>
-          <t>[17.03]</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>[31.02]</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
         <is>
           <t>[1735.17]</t>
         </is>
@@ -8965,45 +7695,35 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[52]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[51.853452142606585]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>[52]</t>
+          <t>[51.853452142606585]</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>[51.853452142606585]</t>
+          <t>[17.89]</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>[51.853452142606585]</t>
+          <t>[33.3]</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
-        <is>
-          <t>[17.89]</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>[33.3]</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
         <is>
           <t>[1751.87]</t>
         </is>
@@ -9032,45 +7752,35 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[37.620481659462996]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>[39]</t>
+          <t>[34.71643324325585]</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>[37.620481659462996]</t>
+          <t>[12.69]</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>[34.71643324325585]</t>
+          <t>[31.63]</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
-        <is>
-          <t>[12.69]</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>[31.63]</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
         <is>
           <t>[1607.09]</t>
         </is>
@@ -9099,45 +7809,35 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[31]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[30.265275632766304]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>[31]</t>
+          <t>[26.697149473677893]</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>[30.265275632766304]</t>
+          <t>[11.32]</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>[26.697149473677893]</t>
+          <t>[32.63]</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
-        <is>
-          <t>[11.32]</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>[32.63]</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
         <is>
           <t>[1106.22]</t>
         </is>
@@ -9166,45 +7866,35 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[93]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[89.44072787074697]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>[93]</t>
+          <t>[75.73319788168175]</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>[89.44072787074697]</t>
+          <t>[29.56]</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>[75.73319788168175]</t>
+          <t>[38.55]</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
-        <is>
-          <t>[29.56]</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>[38.55]</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
         <is>
           <t>[4279.67]</t>
         </is>
@@ -9233,45 +7923,35 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[74]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[71.95572669196675]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>[74]</t>
+          <t>[59.49603948931558]</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>[71.95572669196675]</t>
+          <t>[24.87]</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>[59.49603948931558]</t>
+          <t>[38.94]</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
-        <is>
-          <t>[24.87]</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>[38.94]</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
         <is>
           <t>[3687.82]</t>
         </is>
@@ -9300,45 +7980,35 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[143]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[130.71152254936533]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>[143]</t>
+          <t>[120.40725590392015]</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>[130.71152254936533]</t>
+          <t>[46.91]</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>[120.40725590392015]</t>
+          <t>[26.99]</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
-        <is>
-          <t>[46.91]</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>[26.99]</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
         <is>
           <t>[4245.61]</t>
         </is>
@@ -9367,45 +8037,35 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[71]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[64.95735375722688]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>[71]</t>
+          <t>[58.470355908413616]</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>[64.95735375722688]</t>
+          <t>[25.72]</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>[58.470355908413616]</t>
+          <t>[64.94]</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
-        <is>
-          <t>[25.72]</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>[64.94]</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
         <is>
           <t>[4534.51]</t>
         </is>
@@ -9434,45 +8094,35 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[111]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[109.99670769762287]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>[111]</t>
+          <t>[109.99670769762287]</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>[109.99670769762287]</t>
+          <t>[42.08]</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>[109.99670769762287]</t>
+          <t>[47.33]</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
-        <is>
-          <t>[42.08]</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>[47.33]</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
         <is>
           <t>[6373.27]</t>
         </is>
@@ -9501,45 +8151,35 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[89]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[87.46482733403951]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>[89]</t>
+          <t>[72.92630677718111]</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>[87.46482733403951]</t>
+          <t>[30.0]</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>[72.92630677718111]</t>
+          <t>[41.43]</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
-        <is>
-          <t>[30.0]</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>[41.43]</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
         <is>
           <t>[4296.01]</t>
         </is>
@@ -9568,45 +8208,35 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[54]</t>
+          <t>[13.025157503360054]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[14.6407754314166]</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>[13.025157503360054]</t>
+          <t>[6.44]</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>[14.6407754314166]</t>
+          <t>[88.44]</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
-        <is>
-          <t>[6.44]</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>[88.44]</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
         <is>
           <t>[1481.93]</t>
         </is>
@@ -9635,45 +8265,35 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[55]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[49.03243047302874]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>[55]</t>
+          <t>[46.3442501813324]</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>[49.03243047302874]</t>
+          <t>[19.85]</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>[46.3442501813324]</t>
+          <t>[43.57]</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
-        <is>
-          <t>[19.85]</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>[43.57]</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
         <is>
           <t>[2638.62]</t>
         </is>
@@ -9702,45 +8322,35 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[18, 18]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[18, 18]</t>
+          <t>[98, 90]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[16, 16]</t>
+          <t>[92.21275725137035, 84.90692869257478]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>[98, 90]</t>
+          <t>[81.89569880396573, 81.02131829843654]</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>[92.21275725137035, 84.90692869257478]</t>
+          <t>[32.03, 29.48]</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>[81.89569880396573, 81.02131829843654]</t>
+          <t>[48.8, 46.63]</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
-        <is>
-          <t>[32.03, 29.48]</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>[48.8, 46.63]</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
         <is>
           <t>[4609.88, 4546.69]</t>
         </is>

--- a/[3] Test Input/RESULTS_T10.xlsx
+++ b/[3] Test Input/RESULTS_T10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -538,12 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[20.31, 13.58, 9.9]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[680.77, 806.07, 540.98]</t>
+          <t>[540.86, 480.47, 383.85]</t>
         </is>
       </c>
     </row>
@@ -595,12 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[48.67]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[1527.07]</t>
+          <t>[1051.97]</t>
         </is>
       </c>
     </row>
@@ -652,12 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[25.57]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[1022.91]</t>
+          <t>[680.0]</t>
         </is>
       </c>
     </row>
@@ -709,12 +689,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[45.06]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[1560.3]</t>
+          <t>[1046.8]</t>
         </is>
       </c>
     </row>
@@ -766,12 +741,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[28.9]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[900.88]</t>
+          <t>[536.68]</t>
         </is>
       </c>
     </row>
@@ -823,12 +793,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[27.28]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[998.43]</t>
+          <t>[642.09]</t>
         </is>
       </c>
     </row>
@@ -880,12 +845,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[40.12, 24.93]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[1680.73, 903.45]</t>
+          <t>[1086.83, 541.56]</t>
         </is>
       </c>
     </row>
@@ -937,12 +897,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[88.04]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[4554.62]</t>
+          <t>[2812.6]</t>
         </is>
       </c>
     </row>
@@ -994,12 +949,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[43.62, 57.68]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[3078.16, 3302.36]</t>
+          <t>[1893.59, 2106.35]</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1001,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[63.85]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>[4441.71]</t>
+          <t>[2993.42]</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1053,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[43.22]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>[2962.44]</t>
+          <t>[1909.92]</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1105,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[68.17]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[6069.61]</t>
+          <t>[3759.36]</t>
         </is>
       </c>
     </row>
@@ -1222,12 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[36.83]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>[2333.51]</t>
+          <t>[1445.66]</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1209,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[47.76, 53.68]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>[3760.41, 3979.86]</t>
+          <t>[2520.15, 2723.46]</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1261,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[20.02]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>[2279.12]</t>
+          <t>[1432.47]</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1313,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[52.39]</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>[3149.63]</t>
+          <t>[2179.09]</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1365,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[26.9]</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[1285.94]</t>
+          <t>[840.42]</t>
         </is>
       </c>
     </row>
@@ -1507,12 +1417,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[42.67]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[2527.21]</t>
+          <t>[1658.05]</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1469,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[76.73]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[3020.08]</t>
+          <t>[1932.1]</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1521,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[55.65]</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>[3430.23]</t>
+          <t>[2195.84]</t>
         </is>
       </c>
     </row>
@@ -1678,12 +1573,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[48.17]</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>[2048.13]</t>
+          <t>[1397.02]</t>
         </is>
       </c>
     </row>
@@ -1735,12 +1625,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[63.98, 59.52]</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>[4143.48, 4151.28]</t>
+          <t>[2551.42, 2840.91]</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1677,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[41.29]</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>[1892.19]</t>
+          <t>[1263.65]</t>
         </is>
       </c>
     </row>
@@ -1849,12 +1729,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[45.94, 31.51]</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>[1419.64, 965.08]</t>
+          <t>[969.31, 695.21]</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1781,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[30.5]</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>[1210.37]</t>
+          <t>[724.47]</t>
         </is>
       </c>
     </row>
@@ -1963,12 +1833,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[31.29]</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>[1095.61]</t>
+          <t>[686.27]</t>
         </is>
       </c>
     </row>
@@ -2020,12 +1885,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[29.12]</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>[1197.2]</t>
+          <t>[808.63]</t>
         </is>
       </c>
     </row>
@@ -2077,12 +1937,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[31.01]</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>[1107.96]</t>
+          <t>[676.31]</t>
         </is>
       </c>
     </row>
@@ -2134,12 +1989,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[26.98]</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>[1088.55]</t>
+          <t>[725.25]</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2041,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[37.35]</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>[1364.07]</t>
+          <t>[910.99]</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2093,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>[31.39]</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[1034.56]</t>
+          <t>[700.97]</t>
         </is>
       </c>
     </row>
@@ -2305,12 +2145,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[57.75]</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>[1817.25]</t>
+          <t>[1051.04]</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2197,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[24.48]</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>[680.63]</t>
+          <t>[489.8]</t>
         </is>
       </c>
     </row>
@@ -2419,12 +2249,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[39.85]</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>[1382.74]</t>
+          <t>[887.82]</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2301,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[37.99]</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>[1396.3]</t>
+          <t>[862.51]</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2353,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[15.78]</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>[937.85]</t>
+          <t>[621.92]</t>
         </is>
       </c>
     </row>
@@ -2590,12 +2405,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[41.83]</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>[1583.9]</t>
+          <t>[957.24]</t>
         </is>
       </c>
     </row>
@@ -2647,12 +2457,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[41.58]</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>[1332.24]</t>
+          <t>[799.1]</t>
         </is>
       </c>
     </row>
@@ -2704,12 +2509,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[53.02]</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>[4564.14]</t>
+          <t>[2849.81]</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2561,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[50.18]</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>[4494.74]</t>
+          <t>[2805.51]</t>
         </is>
       </c>
     </row>
@@ -2818,12 +2613,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[46.3, 41.53]</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>[4557.16, 4262.81]</t>
+          <t>[2765.4, 2760.71]</t>
         </is>
       </c>
     </row>
@@ -2875,12 +2665,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[30.04]</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>[2359.18]</t>
+          <t>[1526.34]</t>
         </is>
       </c>
     </row>
@@ -2932,12 +2717,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>[43.38]</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>[1834.96]</t>
+          <t>[1230.4]</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2769,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[29.5]</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>[1118.38]</t>
+          <t>[681.22]</t>
         </is>
       </c>
     </row>
@@ -3046,12 +2821,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[27.13]</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>[1754.07]</t>
+          <t>[1178.13]</t>
         </is>
       </c>
     </row>
@@ -3103,12 +2873,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[32.27]</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>[1849.96]</t>
+          <t>[1172.36]</t>
         </is>
       </c>
     </row>
@@ -3160,12 +2925,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[26.61, 19.26]</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>[1100.82, 885.8]</t>
+          <t>[785.66, 565.87]</t>
         </is>
       </c>
     </row>
@@ -3217,12 +2977,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[6.65]</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>[814.05]</t>
+          <t>[453.62]</t>
         </is>
       </c>
     </row>
@@ -3274,12 +3029,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[33.75, 23.4]</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>[1672.63, 1305.56]</t>
+          <t>[1207.01, 891.32]</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3081,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[23.49, 22.9]</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>[1490.44, 1183.58]</t>
+          <t>[994.51, 834.59]</t>
         </is>
       </c>
     </row>
@@ -3388,12 +3133,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[33.33]</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>[4603.86]</t>
+          <t>[3208.15]</t>
         </is>
       </c>
     </row>
@@ -3445,12 +3185,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[44.36]</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>[4986.41]</t>
+          <t>[3064.67]</t>
         </is>
       </c>
     </row>
@@ -3502,12 +3237,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[45.38, 21.23]</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>[5267.7, 4441.84]</t>
+          <t>[3260.01, 3323.35]</t>
         </is>
       </c>
     </row>
@@ -3559,12 +3289,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[41.63]</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>[5127.71]</t>
+          <t>[3252.93]</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3341,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[55.04]</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>[6939.63]</t>
+          <t>[4461.71]</t>
         </is>
       </c>
     </row>
@@ -3673,12 +3393,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[42.39, 31.7]</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>[5479.91, 4318.06]</t>
+          <t>[3638.59, 2947.28]</t>
         </is>
       </c>
     </row>
@@ -3730,12 +3445,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[48.01]</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>[5713.71]</t>
+          <t>[3700.78]</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3497,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[40.29]</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>[3160.41]</t>
+          <t>[1992.29]</t>
         </is>
       </c>
     </row>
@@ -3844,12 +3549,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[9.52]</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>[1904.19]</t>
+          <t>[1020.08]</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3601,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[42.88]</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>[3586.45]</t>
+          <t>[2307.69]</t>
         </is>
       </c>
     </row>
@@ -3958,12 +3653,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[54.39]</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>[4000.0]</t>
+          <t>[2687.13]</t>
         </is>
       </c>
     </row>
@@ -4015,12 +3705,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[36.39]</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>[2954.34]</t>
+          <t>[1993.77]</t>
         </is>
       </c>
     </row>
@@ -4072,12 +3757,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[46.19]</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>[4199.6]</t>
+          <t>[2711.14]</t>
         </is>
       </c>
     </row>
@@ -4129,12 +3809,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[35.34]</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>[3543.97]</t>
+          <t>[2344.5]</t>
         </is>
       </c>
     </row>
@@ -4186,12 +3861,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[38.63, 54.94, 33.86]</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>[3165.1, 5151.58, 3139.1]</t>
+          <t>[2136.57, 3036.17, 1885.03]</t>
         </is>
       </c>
     </row>
@@ -4243,12 +3913,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>[58.06, 41.17]</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>[3913.06, 2989.95]</t>
+          <t>[2597.02, 1782.26]</t>
         </is>
       </c>
     </row>
@@ -4300,12 +3965,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[33.52]</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>[2607.98]</t>
+          <t>[1700.57]</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4017,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[35.05]</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>[2513.76]</t>
+          <t>[1485.64]</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4069,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>[15.97]</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>[1884.88]</t>
+          <t>[1044.8]</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4121,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[27.44]</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>[2670.9]</t>
+          <t>[1788.04]</t>
         </is>
       </c>
     </row>
@@ -4528,12 +4173,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[41.57]</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>[2727.98]</t>
+          <t>[1555.24]</t>
         </is>
       </c>
     </row>
@@ -4585,12 +4225,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[23.16]</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>[1854.75]</t>
+          <t>[1179.03]</t>
         </is>
       </c>
     </row>
@@ -4642,12 +4277,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[34.42]</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>[2076.71]</t>
+          <t>[1385.28]</t>
         </is>
       </c>
     </row>
@@ -4699,12 +4329,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[38.0]</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>[2870.19]</t>
+          <t>[1793.7]</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4381,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[16.51, 25.35]</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>[1033.49, 1491.82]</t>
+          <t>[708.26, 973.78]</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4433,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[9.87]</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>[1100.22]</t>
+          <t>[752.06]</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4485,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[29.87]</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>[1762.94]</t>
+          <t>[1139.38]</t>
         </is>
       </c>
     </row>
@@ -4927,12 +4537,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>[25.1]</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>[2588.28]</t>
+          <t>[1415.72]</t>
         </is>
       </c>
     </row>
@@ -4984,12 +4589,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[21.44]</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>[2527.4]</t>
+          <t>[1699.33]</t>
         </is>
       </c>
     </row>
@@ -5041,12 +4641,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[36.42]</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>[2051.4]</t>
+          <t>[1264.79]</t>
         </is>
       </c>
     </row>
@@ -5098,12 +4693,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[31.05]</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>[2480.36]</t>
+          <t>[1481.61]</t>
         </is>
       </c>
     </row>
@@ -5155,12 +4745,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[39.87]</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>[3092.92]</t>
+          <t>[2037.62]</t>
         </is>
       </c>
     </row>
@@ -5212,12 +4797,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[32.79]</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>[3003.01]</t>
+          <t>[1936.12]</t>
         </is>
       </c>
     </row>
@@ -5269,12 +4849,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>[54.86]</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>[6457.9]</t>
+          <t>[4353.4]</t>
         </is>
       </c>
     </row>
@@ -5326,12 +4901,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>[41.7]</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>[7528.27]</t>
+          <t>[4993.28]</t>
         </is>
       </c>
     </row>
@@ -5383,12 +4953,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>[36.36]</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>[7754.48]</t>
+          <t>[5343.96]</t>
         </is>
       </c>
     </row>
@@ -5440,12 +5005,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>[22.44]</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>[4690.96]</t>
+          <t>[3893.0]</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5057,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>[44.93]</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>[6199.74]</t>
+          <t>[4087.63]</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5109,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>[49.81, 29.87]</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>[5614.22, 5030.37]</t>
+          <t>[3717.39, 3361.43]</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5161,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>[38.97]</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>[6032.05]</t>
+          <t>[4206.4]</t>
         </is>
       </c>
     </row>
@@ -5668,12 +5213,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>[39.38, 13.98]</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>[1928.08, 868.7]</t>
+          <t>[1291.32, 613.55]</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5265,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[16.26]</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>[872.84]</t>
+          <t>[588.16]</t>
         </is>
       </c>
     </row>
@@ -5782,12 +5317,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>[50.88]</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>[2593.78]</t>
+          <t>[1469.92]</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5369,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[27.19]</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>[1398.13]</t>
+          <t>[849.19]</t>
         </is>
       </c>
     </row>
@@ -5896,12 +5421,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>[25.02]</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>[1276.1]</t>
+          <t>[799.89]</t>
         </is>
       </c>
     </row>
@@ -5953,12 +5473,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>[22.77, 30.23]</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>[1378.86, 1319.6]</t>
+          <t>[843.92, 846.74]</t>
         </is>
       </c>
     </row>
@@ -6010,12 +5525,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>[54.93, 37.72]</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>[4914.13, 3908.41]</t>
+          <t>[3102.11, 2682.9]</t>
         </is>
       </c>
     </row>
@@ -6067,12 +5577,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>[28.87]</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>[3553.39]</t>
+          <t>[2534.11]</t>
         </is>
       </c>
     </row>
@@ -6124,12 +5629,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>[69.25]</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>[5177.13]</t>
+          <t>[3186.68]</t>
         </is>
       </c>
     </row>
@@ -6181,12 +5681,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>[44.08]</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>[4181.98]</t>
+          <t>[2878.15]</t>
         </is>
       </c>
     </row>
@@ -6238,12 +5733,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>[46.88, 34.71]</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>[4268.85, 3284.76]</t>
+          <t>[2926.95, 2202.48]</t>
         </is>
       </c>
     </row>
@@ -6295,12 +5785,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>[40.3]</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>[4492.06]</t>
+          <t>[2998.75]</t>
         </is>
       </c>
     </row>
@@ -6352,12 +5837,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>[40.1]</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>[4140.32]</t>
+          <t>[2844.67]</t>
         </is>
       </c>
     </row>
@@ -6409,12 +5889,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>[45.28]</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>[4157.56]</t>
+          <t>[2932.88]</t>
         </is>
       </c>
     </row>
@@ -6466,12 +5941,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>[34.59]</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>[2189.33]</t>
+          <t>[1522.77]</t>
         </is>
       </c>
     </row>
@@ -6523,12 +5993,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>[29.14]</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>[2541.2]</t>
+          <t>[1777.0]</t>
         </is>
       </c>
     </row>
@@ -6580,12 +6045,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>[32.6]</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>[3923.92]</t>
+          <t>[2499.62]</t>
         </is>
       </c>
     </row>
@@ -6637,12 +6097,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>[23.7]</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>[2594.65]</t>
+          <t>[1717.08]</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6149,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>[29.26]</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>[1838.77]</t>
+          <t>[1322.89]</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6201,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>[29.74]</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>[3688.0]</t>
+          <t>[2442.89]</t>
         </is>
       </c>
     </row>
@@ -6808,12 +6253,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>[46.63]</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>[2999.25]</t>
+          <t>[2269.12]</t>
         </is>
       </c>
     </row>
@@ -6865,12 +6305,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>[14.18]</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>[1776.36]</t>
+          <t>[1155.6]</t>
         </is>
       </c>
     </row>
@@ -6922,12 +6357,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>[33.61]</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>[3035.4]</t>
+          <t>[2026.57]</t>
         </is>
       </c>
     </row>
@@ -6979,12 +6409,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>[25.94]</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>[1764.17]</t>
+          <t>[1177.34]</t>
         </is>
       </c>
     </row>
@@ -7036,12 +6461,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>[21.27]</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>[1635.4]</t>
+          <t>[1026.52]</t>
         </is>
       </c>
     </row>
@@ -7093,12 +6513,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>[32.53, 17.85]</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>[1705.99, 1529.01]</t>
+          <t>[1080.57, 1066.76]</t>
         </is>
       </c>
     </row>
@@ -7150,12 +6565,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>[40.05]</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>[1753.86]</t>
+          <t>[969.1]</t>
         </is>
       </c>
     </row>
@@ -7207,12 +6617,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>[19.14]</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>[1304.07]</t>
+          <t>[863.94]</t>
         </is>
       </c>
     </row>
@@ -7264,12 +6669,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>[20.69]</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>[1134.02]</t>
+          <t>[672.27]</t>
         </is>
       </c>
     </row>
@@ -7321,12 +6721,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>[73.99]</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>[4857.97]</t>
+          <t>[2964.5]</t>
         </is>
       </c>
     </row>
@@ -7378,12 +6773,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>[20.08]</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>[1644.6]</t>
+          <t>[1073.4]</t>
         </is>
       </c>
     </row>
@@ -7435,12 +6825,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>[18.73]</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>[1374.58]</t>
+          <t>[854.74]</t>
         </is>
       </c>
     </row>
@@ -7492,12 +6877,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>[51.98]</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>[3412.2]</t>
+          <t>[2170.09]</t>
         </is>
       </c>
     </row>
@@ -7549,12 +6929,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>[13.63]</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>[955.5]</t>
+          <t>[643.84]</t>
         </is>
       </c>
     </row>
@@ -7606,12 +6981,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>[16.9, 25.21]</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>[1273.42, 1478.75]</t>
+          <t>[848.85, 885.79]</t>
         </is>
       </c>
     </row>
@@ -7663,12 +7033,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>[31.02]</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>[1735.17]</t>
+          <t>[1080.64]</t>
         </is>
       </c>
     </row>
@@ -7720,12 +7085,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>[33.3]</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>[1751.87]</t>
+          <t>[1036.82]</t>
         </is>
       </c>
     </row>
@@ -7777,12 +7137,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>[31.63]</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>[1607.09]</t>
+          <t>[1070.8]</t>
         </is>
       </c>
     </row>
@@ -7834,12 +7189,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>[32.63]</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>[1106.22]</t>
+          <t>[751.25]</t>
         </is>
       </c>
     </row>
@@ -7891,12 +7241,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>[38.55]</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>[4279.67]</t>
+          <t>[2901.14]</t>
         </is>
       </c>
     </row>
@@ -7948,12 +7293,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>[38.94]</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>[3687.82]</t>
+          <t>[2352.76]</t>
         </is>
       </c>
     </row>
@@ -8005,12 +7345,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>[26.99]</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>[4245.61]</t>
+          <t>[3142.61]</t>
         </is>
       </c>
     </row>
@@ -8062,12 +7397,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>[64.94]</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>[4534.51]</t>
+          <t>[2969.98]</t>
         </is>
       </c>
     </row>
@@ -8119,12 +7449,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>[47.33]</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>[6373.27]</t>
+          <t>[4122.84]</t>
         </is>
       </c>
     </row>
@@ -8176,12 +7501,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>[41.43]</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>[4296.01]</t>
+          <t>[2896.93]</t>
         </is>
       </c>
     </row>
@@ -8233,12 +7553,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>[88.44]</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>[1481.93]</t>
+          <t>[829.45]</t>
         </is>
       </c>
     </row>
@@ -8290,12 +7605,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>[43.57]</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>[2638.62]</t>
+          <t>[1649.52]</t>
         </is>
       </c>
     </row>
@@ -8347,12 +7657,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>[48.8, 46.63]</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>[4609.88, 4546.69]</t>
+          <t>[3053.66, 2948.61]</t>
         </is>
       </c>
     </row>
